--- a/data/SCO-UK-Testing-data.xlsx
+++ b/data/SCO-UK-Testing-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\githome\TTS-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B07D29-54D6-4054-B2A7-D34829A54E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12533A-8F71-4EB4-9582-748A6AF44B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-225" yWindow="150" windowWidth="13800" windowHeight="16575" xr2:uid="{93D57720-AC84-4EF6-A2D3-6D35E30BD1F9}"/>
+    <workbookView xWindow="5760" yWindow="690" windowWidth="21855" windowHeight="16575" xr2:uid="{93D57720-AC84-4EF6-A2D3-6D35E30BD1F9}"/>
   </bookViews>
   <sheets>
     <sheet name="R-Table5-Testing" sheetId="1" r:id="rId1"/>
@@ -123,13 +123,13 @@
     <t>Sco Daily Tests per 100,000 MA</t>
   </si>
   <si>
-    <t>Daily New Cases Scaled</t>
-  </si>
-  <si>
     <t>ratio New cases to people newly tested</t>
   </si>
   <si>
     <t>Percent Daily Positive MA</t>
+  </si>
+  <si>
+    <t>Daily New Cases MA</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -578,6 +578,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -899,10 +900,10 @@
   </sheetPr>
   <dimension ref="A1:AL285"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1470" topLeftCell="A229" activePane="bottomLeft"/>
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
-      <selection pane="bottomLeft" activeCell="AG281" sqref="AG281"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1470" topLeftCell="A202" activePane="bottomLeft"/>
+      <selection activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="V211" sqref="V211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
@@ -1003,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X1" s="90" t="s">
         <v>5</v>
@@ -1018,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="AB1" s="101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
@@ -4838,16 +4839,16 @@
       <c r="A52" s="48">
         <v>43942</v>
       </c>
-      <c r="B52" s="78">
-        <v>22814</v>
+      <c r="B52">
+        <v>22763</v>
       </c>
       <c r="C52" s="88">
         <f t="shared" si="9"/>
-        <v>34.56666666666667</v>
+        <v>34.489393939393942</v>
       </c>
       <c r="D52" s="88">
         <f t="shared" si="7"/>
-        <v>30.975757575757573</v>
+        <v>30.964718614718613</v>
       </c>
       <c r="E52" s="46">
         <v>33027</v>
@@ -4930,16 +4931,16 @@
       <c r="A53" s="48">
         <v>43943</v>
       </c>
-      <c r="B53" s="78">
-        <v>23560</v>
+      <c r="B53">
+        <v>23073</v>
       </c>
       <c r="C53" s="88">
         <f t="shared" si="9"/>
-        <v>35.696969696969695</v>
+        <v>34.959090909090911</v>
       </c>
       <c r="D53" s="88">
         <f t="shared" si="7"/>
-        <v>32.03528138528138</v>
+        <v>31.918831168831169</v>
       </c>
       <c r="E53" s="46">
         <v>34271</v>
@@ -5022,16 +5023,16 @@
       <c r="A54" s="48">
         <v>43944</v>
       </c>
-      <c r="B54" s="78">
-        <v>28532</v>
+      <c r="B54">
+        <v>28024</v>
       </c>
       <c r="C54" s="88">
         <f t="shared" si="9"/>
-        <v>43.230303030303027</v>
+        <v>42.460606060606061</v>
       </c>
       <c r="D54" s="88">
         <f t="shared" si="7"/>
-        <v>33.594588744588741</v>
+        <v>33.368181818181817</v>
       </c>
       <c r="E54" s="46">
         <v>35390</v>
@@ -5114,16 +5115,16 @@
       <c r="A55" s="48">
         <v>43945</v>
       </c>
-      <c r="B55" s="78">
-        <v>28760</v>
+      <c r="B55">
+        <v>28225</v>
       </c>
       <c r="C55" s="88">
         <f t="shared" si="9"/>
-        <v>43.575757575757578</v>
+        <v>42.765151515151516</v>
       </c>
       <c r="D55" s="88">
         <f t="shared" si="7"/>
-        <v>35.190043290043285</v>
+        <v>34.847835497835497</v>
       </c>
       <c r="E55" s="46">
         <v>36392</v>
@@ -5206,7 +5207,7 @@
       <c r="A56" s="48">
         <v>43946</v>
       </c>
-      <c r="B56" s="78">
+      <c r="B56">
         <v>29058</v>
       </c>
       <c r="C56" s="88">
@@ -5215,7 +5216,7 @@
       </c>
       <c r="D56" s="88">
         <f t="shared" si="7"/>
-        <v>36.798701298701296</v>
+        <v>36.456493506493509</v>
       </c>
       <c r="E56" s="46">
         <v>37698</v>
@@ -5298,7 +5299,7 @@
       <c r="A57" s="48">
         <v>43947</v>
       </c>
-      <c r="B57" s="78">
+      <c r="B57">
         <v>31610</v>
       </c>
       <c r="C57" s="88">
@@ -5307,7 +5308,7 @@
       </c>
       <c r="D57" s="88">
         <f t="shared" si="7"/>
-        <v>39.459740259740265</v>
+        <v>39.117532467532477</v>
       </c>
       <c r="E57" s="46">
         <v>38833</v>
@@ -5390,16 +5391,16 @@
       <c r="A58" s="48">
         <v>43948</v>
       </c>
-      <c r="B58" s="78">
-        <v>33287</v>
+      <c r="B58">
+        <v>31453</v>
       </c>
       <c r="C58" s="88">
         <f t="shared" si="9"/>
-        <v>50.434848484848487</v>
+        <v>47.656060606060606</v>
       </c>
       <c r="D58" s="88">
         <f t="shared" si="7"/>
-        <v>42.775108225108227</v>
+        <v>42.035930735930734</v>
       </c>
       <c r="E58" s="46">
         <v>39773</v>
@@ -5482,16 +5483,16 @@
       <c r="A59" s="48">
         <v>43949</v>
       </c>
-      <c r="B59" s="78">
-        <v>45505</v>
+      <c r="B59">
+        <v>45263</v>
       </c>
       <c r="C59" s="88">
         <f t="shared" si="9"/>
-        <v>68.946969696969703</v>
+        <v>68.580303030303028</v>
       </c>
       <c r="D59" s="88">
         <f t="shared" si="7"/>
-        <v>47.686580086580086</v>
+        <v>46.906060606060599</v>
       </c>
       <c r="E59" s="46">
         <v>40728</v>
@@ -5574,16 +5575,16 @@
       <c r="A60" s="48">
         <v>43950</v>
       </c>
-      <c r="B60" s="78">
-        <v>66793</v>
+      <c r="B60">
+        <v>65643</v>
       </c>
       <c r="C60" s="88">
         <f t="shared" si="9"/>
-        <v>101.20151515151515</v>
+        <v>99.459090909090904</v>
       </c>
       <c r="D60" s="88">
         <f t="shared" si="7"/>
-        <v>57.044372294372295</v>
+        <v>56.120346320346314</v>
       </c>
       <c r="E60" s="46">
         <v>42048</v>
@@ -5666,16 +5667,16 @@
       <c r="A61" s="48">
         <v>43951</v>
       </c>
-      <c r="B61" s="78">
-        <v>84215</v>
+      <c r="B61">
+        <v>83143</v>
       </c>
       <c r="C61" s="88">
         <f t="shared" si="9"/>
-        <v>127.59848484848484</v>
+        <v>125.97424242424242</v>
       </c>
       <c r="D61" s="88">
         <f t="shared" si="7"/>
-        <v>69.096969696969694</v>
+        <v>68.050865800865807</v>
       </c>
       <c r="E61" s="49">
         <v>43286</v>
@@ -5758,16 +5759,16 @@
       <c r="A62" s="48">
         <v>43952</v>
       </c>
-      <c r="B62" s="78">
-        <v>74893</v>
+      <c r="B62">
+        <v>74142</v>
       </c>
       <c r="C62" s="88">
         <f t="shared" si="9"/>
-        <v>113.47424242424242</v>
+        <v>112.33636363636364</v>
       </c>
       <c r="D62" s="88">
         <f t="shared" si="7"/>
-        <v>79.082467532467533</v>
+        <v>77.989610389610377</v>
       </c>
       <c r="E62" s="46">
         <v>45048</v>
@@ -5850,7 +5851,7 @@
       <c r="A63" s="48">
         <v>43953</v>
       </c>
-      <c r="B63" s="78">
+      <c r="B63">
         <v>63559</v>
       </c>
       <c r="C63" s="88">
@@ -5859,7 +5860,7 @@
       </c>
       <c r="D63" s="88">
         <f t="shared" si="7"/>
-        <v>86.550216450216453</v>
+        <v>85.457359307359297</v>
       </c>
       <c r="E63" s="46">
         <v>46906</v>
@@ -5942,16 +5943,16 @@
       <c r="A64" s="48">
         <v>43954</v>
       </c>
-      <c r="B64" s="78">
-        <v>68817</v>
+      <c r="B64">
+        <v>68203</v>
       </c>
       <c r="C64" s="88">
         <f t="shared" si="9"/>
-        <v>104.26818181818182</v>
+        <v>103.33787878787879</v>
       </c>
       <c r="D64" s="88">
         <f t="shared" si="7"/>
-        <v>94.603679653679634</v>
+        <v>93.377922077922079</v>
       </c>
       <c r="E64" s="49">
         <v>48198</v>
@@ -6034,16 +6035,16 @@
       <c r="A65" s="48">
         <v>43955</v>
       </c>
-      <c r="B65" s="78">
-        <v>73068</v>
+      <c r="B65">
+        <v>72630</v>
       </c>
       <c r="C65" s="88">
         <f t="shared" si="9"/>
-        <v>110.7090909090909</v>
+        <v>110.04545454545455</v>
       </c>
       <c r="D65" s="88">
         <f t="shared" si="7"/>
-        <v>103.21428571428574</v>
+        <v>102.29069264069264</v>
       </c>
       <c r="E65" s="49">
         <v>49430</v>
@@ -6126,16 +6127,16 @@
       <c r="A66" s="48">
         <v>43956</v>
       </c>
-      <c r="B66" s="78">
-        <v>67444</v>
+      <c r="B66">
+        <v>66919</v>
       </c>
       <c r="C66" s="88">
         <f t="shared" si="9"/>
-        <v>102.18787878787879</v>
+        <v>101.39242424242424</v>
       </c>
       <c r="D66" s="88">
         <f t="shared" si="7"/>
-        <v>107.96298701298701</v>
+        <v>106.97813852813852</v>
       </c>
       <c r="E66" s="49">
         <v>50874</v>
@@ -6218,16 +6219,16 @@
       <c r="A67" s="48">
         <v>43957</v>
       </c>
-      <c r="B67" s="78">
-        <v>74761</v>
+      <c r="B67">
+        <v>74455</v>
       </c>
       <c r="C67" s="88">
         <f t="shared" si="9"/>
-        <v>113.27424242424243</v>
+        <v>112.81060606060606</v>
       </c>
       <c r="D67" s="88">
         <f t="shared" si="7"/>
-        <v>109.68766233766233</v>
+        <v>108.88549783549784</v>
       </c>
       <c r="E67" s="49">
         <v>52416</v>
@@ -6310,16 +6311,16 @@
       <c r="A68" s="48">
         <v>43958</v>
       </c>
-      <c r="B68" s="78">
-        <v>78912</v>
+      <c r="B68">
+        <v>77466</v>
       </c>
       <c r="C68" s="88">
         <f t="shared" si="9"/>
-        <v>119.56363636363636</v>
+        <v>117.37272727272727</v>
       </c>
       <c r="D68" s="88">
         <f t="shared" si="7"/>
-        <v>108.53982683982683</v>
+        <v>107.65670995670996</v>
       </c>
       <c r="E68" s="49">
         <v>54173</v>
@@ -6402,16 +6403,16 @@
       <c r="A69" s="48">
         <v>43959</v>
       </c>
-      <c r="B69" s="78">
-        <v>77892</v>
+      <c r="B69">
+        <v>76963</v>
       </c>
       <c r="C69" s="88">
         <f t="shared" si="9"/>
-        <v>118.01818181818182</v>
+        <v>116.61060606060606</v>
       </c>
       <c r="D69" s="88">
         <f t="shared" si="7"/>
-        <v>109.18896103896103</v>
+        <v>108.26731601731602</v>
       </c>
       <c r="E69" s="49">
         <v>56042</v>
@@ -6494,16 +6495,16 @@
       <c r="A70" s="48">
         <v>43960</v>
       </c>
-      <c r="B70" s="78">
-        <v>77202</v>
+      <c r="B70">
+        <v>77152</v>
       </c>
       <c r="C70" s="88">
         <f t="shared" si="9"/>
-        <v>116.97272727272727</v>
+        <v>116.89696969696969</v>
       </c>
       <c r="D70" s="88">
         <f t="shared" si="7"/>
-        <v>112.14199134199134</v>
+        <v>111.20952380952382</v>
       </c>
       <c r="E70" s="49">
         <v>57787</v>
@@ -6586,16 +6587,16 @@
       <c r="A71" s="48">
         <v>43961</v>
       </c>
-      <c r="B71" s="78">
-        <v>76942</v>
+      <c r="B71">
+        <v>76507</v>
       </c>
       <c r="C71" s="88">
         <f t="shared" si="9"/>
-        <v>116.57878787878788</v>
+        <v>115.91969696969697</v>
       </c>
       <c r="D71" s="88">
         <f t="shared" si="7"/>
-        <v>113.90064935064936</v>
+        <v>113.0069264069264</v>
       </c>
       <c r="E71" s="49">
         <v>59197</v>
@@ -6678,16 +6679,16 @@
       <c r="A72" s="48">
         <v>43962</v>
       </c>
-      <c r="B72" s="78">
-        <v>70360</v>
+      <c r="B72">
+        <v>70332</v>
       </c>
       <c r="C72" s="88">
         <f t="shared" si="9"/>
-        <v>106.60606060606061</v>
+        <v>106.56363636363636</v>
       </c>
       <c r="D72" s="88">
         <f t="shared" si="7"/>
-        <v>113.31450216450217</v>
+        <v>112.5095238095238</v>
       </c>
       <c r="E72" s="49">
         <v>60436</v>
@@ -6770,16 +6771,16 @@
       <c r="A73" s="48">
         <v>43963</v>
       </c>
-      <c r="B73" s="78">
-        <v>74859</v>
+      <c r="B73">
+        <v>74593</v>
       </c>
       <c r="C73" s="88">
         <f t="shared" si="9"/>
-        <v>113.42272727272727</v>
+        <v>113.01969696969697</v>
       </c>
       <c r="D73" s="88">
         <f t="shared" si="7"/>
-        <v>114.91948051948053</v>
+        <v>114.17056277056278</v>
       </c>
       <c r="E73" s="49">
         <v>61807</v>
@@ -6862,16 +6863,16 @@
       <c r="A74" s="48">
         <v>43964</v>
       </c>
-      <c r="B74" s="78">
-        <v>83472</v>
+      <c r="B74">
+        <v>83182</v>
       </c>
       <c r="C74" s="88">
         <f t="shared" si="9"/>
-        <v>126.47272727272727</v>
+        <v>126.03333333333333</v>
       </c>
       <c r="D74" s="88">
         <f t="shared" si="7"/>
-        <v>116.80497835497833</v>
+        <v>116.05952380952381</v>
       </c>
       <c r="E74" s="49">
         <v>63821</v>
@@ -6954,16 +6955,16 @@
       <c r="A75" s="48">
         <v>43965</v>
       </c>
-      <c r="B75" s="78">
-        <v>85166</v>
+      <c r="B75">
+        <v>84693</v>
       </c>
       <c r="C75" s="88">
         <f t="shared" si="9"/>
-        <v>129.03939393939393</v>
+        <v>128.32272727272726</v>
       </c>
       <c r="D75" s="88">
         <f t="shared" ref="D75:D138" si="23">SUM(C69:C75)/7</f>
-        <v>118.15865800865801</v>
+        <v>117.62380952380951</v>
       </c>
       <c r="E75" s="49">
         <v>66158</v>
@@ -7046,16 +7047,16 @@
       <c r="A76" s="48">
         <v>43966</v>
       </c>
-      <c r="B76" s="78">
-        <v>93934</v>
+      <c r="B76">
+        <v>91342</v>
       </c>
       <c r="C76" s="88">
         <f t="shared" si="9"/>
-        <v>142.32424242424241</v>
+        <v>138.39696969696971</v>
       </c>
       <c r="D76" s="88">
         <f t="shared" si="23"/>
-        <v>121.63095238095239</v>
+        <v>120.73614718614718</v>
       </c>
       <c r="E76" s="49">
         <v>68006</v>
@@ -7138,16 +7139,16 @@
       <c r="A77" s="48">
         <v>43967</v>
       </c>
-      <c r="B77" s="78">
-        <v>93353</v>
+      <c r="B77">
+        <v>91360</v>
       </c>
       <c r="C77" s="88">
         <f t="shared" si="9"/>
-        <v>141.44393939393939</v>
+        <v>138.42424242424244</v>
       </c>
       <c r="D77" s="88">
         <f t="shared" si="23"/>
-        <v>125.12683982683984</v>
+        <v>123.81147186147184</v>
       </c>
       <c r="E77" s="49">
         <v>71157</v>
@@ -7230,16 +7231,16 @@
       <c r="A78" s="48">
         <v>43968</v>
       </c>
-      <c r="B78" s="78">
-        <v>82141</v>
+      <c r="B78">
+        <v>81278</v>
       </c>
       <c r="C78" s="88">
         <f t="shared" si="9"/>
-        <v>124.4560606060606</v>
+        <v>123.14848484848486</v>
       </c>
       <c r="D78" s="88">
         <f t="shared" si="23"/>
-        <v>126.2521645021645</v>
+        <v>124.84415584415584</v>
       </c>
       <c r="E78" s="49">
         <v>73123</v>
@@ -7322,16 +7323,16 @@
       <c r="A79" s="48">
         <v>43969</v>
       </c>
-      <c r="B79" s="78">
-        <v>72532</v>
+      <c r="B79">
+        <v>70074</v>
       </c>
       <c r="C79" s="88">
         <f t="shared" si="9"/>
-        <v>109.89696969696969</v>
+        <v>106.17272727272727</v>
       </c>
       <c r="D79" s="88">
         <f t="shared" si="23"/>
-        <v>126.72229437229437</v>
+        <v>124.78831168831168</v>
       </c>
       <c r="E79" s="49">
         <v>74346</v>
@@ -7414,16 +7415,16 @@
       <c r="A80" s="48">
         <v>43970</v>
       </c>
-      <c r="B80" s="78">
-        <v>88126</v>
+      <c r="B80">
+        <v>86041</v>
       </c>
       <c r="C80" s="88">
         <f t="shared" si="9"/>
-        <v>133.52424242424243</v>
+        <v>130.36515151515152</v>
       </c>
       <c r="D80" s="88">
         <f t="shared" si="23"/>
-        <v>129.59393939393939</v>
+        <v>127.26623376623377</v>
       </c>
       <c r="E80" s="49">
         <v>75766</v>
@@ -7506,16 +7507,16 @@
       <c r="A81" s="48">
         <v>43971</v>
       </c>
-      <c r="B81" s="78">
-        <v>87819</v>
+      <c r="B81">
+        <v>86634</v>
       </c>
       <c r="C81" s="88">
         <f t="shared" si="9"/>
-        <v>133.05909090909091</v>
+        <v>131.26363636363635</v>
       </c>
       <c r="D81" s="88">
         <f t="shared" si="23"/>
-        <v>130.53484848484848</v>
+        <v>128.01341991341991</v>
       </c>
       <c r="E81" s="49">
         <v>77843</v>
@@ -7598,16 +7599,16 @@
       <c r="A82" s="48">
         <v>43972</v>
       </c>
-      <c r="B82" s="78">
-        <v>107919</v>
+      <c r="B82">
+        <v>105655</v>
       </c>
       <c r="C82" s="88">
         <f t="shared" si="9"/>
-        <v>163.51363636363635</v>
+        <v>160.08333333333334</v>
       </c>
       <c r="D82" s="88">
         <f t="shared" si="23"/>
-        <v>135.45974025974027</v>
+        <v>132.55064935064937</v>
       </c>
       <c r="E82" s="49">
         <v>80317</v>
@@ -7690,16 +7691,16 @@
       <c r="A83" s="48">
         <v>43973</v>
       </c>
-      <c r="B83" s="78">
-        <v>92143</v>
+      <c r="B83">
+        <v>91196</v>
       </c>
       <c r="C83" s="88">
         <f t="shared" si="9"/>
-        <v>139.61060606060607</v>
+        <v>138.17575757575759</v>
       </c>
       <c r="D83" s="88">
         <f t="shared" si="23"/>
-        <v>135.07207792207791</v>
+        <v>132.51904761904763</v>
       </c>
       <c r="E83" s="49">
         <v>82638</v>
@@ -7782,16 +7783,16 @@
       <c r="A84" s="48">
         <v>43974</v>
       </c>
-      <c r="B84" s="78">
-        <v>92312</v>
+      <c r="B84">
+        <v>91841</v>
       </c>
       <c r="C84" s="88">
         <f t="shared" si="9"/>
-        <v>139.86666666666667</v>
+        <v>139.15303030303031</v>
       </c>
       <c r="D84" s="88">
         <f t="shared" si="23"/>
-        <v>134.84675324675325</v>
+        <v>132.62316017316019</v>
       </c>
       <c r="E84" s="49">
         <v>84891</v>
@@ -7874,16 +7875,16 @@
       <c r="A85" s="48">
         <v>43975</v>
       </c>
-      <c r="B85" s="78">
-        <v>59633</v>
+      <c r="B85">
+        <v>59464</v>
       </c>
       <c r="C85" s="88">
         <f t="shared" si="9"/>
-        <v>90.353030303030309</v>
+        <v>90.096969696969694</v>
       </c>
       <c r="D85" s="88">
         <f t="shared" si="23"/>
-        <v>129.97489177489177</v>
+        <v>127.90151515151514</v>
       </c>
       <c r="E85" s="49">
         <v>86612</v>
@@ -7966,16 +7967,16 @@
       <c r="A86" s="48">
         <v>43976</v>
       </c>
-      <c r="B86" s="78">
-        <v>78478</v>
+      <c r="B86">
+        <v>78385</v>
       </c>
       <c r="C86" s="88">
         <f t="shared" si="9"/>
-        <v>118.90606060606061</v>
+        <v>118.76515151515152</v>
       </c>
       <c r="D86" s="88">
         <f t="shared" si="23"/>
-        <v>131.26190476190476</v>
+        <v>129.7004329004329</v>
       </c>
       <c r="E86" s="49">
         <v>88352</v>
@@ -8058,16 +8059,16 @@
       <c r="A87" s="48">
         <v>43977</v>
       </c>
-      <c r="B87" s="78">
-        <v>78099</v>
+      <c r="B87">
+        <v>77745</v>
       </c>
       <c r="C87" s="88">
         <f t="shared" si="9"/>
-        <v>118.33181818181818</v>
+        <v>117.79545454545455</v>
       </c>
       <c r="D87" s="88">
         <f t="shared" si="23"/>
-        <v>129.09155844155845</v>
+        <v>127.90476190476191</v>
       </c>
       <c r="E87" s="49">
         <v>89695</v>
@@ -8150,16 +8151,16 @@
       <c r="A88" s="48">
         <v>43978</v>
       </c>
-      <c r="B88" s="78">
-        <v>83014</v>
+      <c r="B88">
+        <v>82670</v>
       </c>
       <c r="C88" s="88">
         <f t="shared" si="9"/>
-        <v>125.77878787878788</v>
+        <v>125.25757575757575</v>
       </c>
       <c r="D88" s="88">
         <f t="shared" si="23"/>
-        <v>128.05151515151516</v>
+        <v>127.04675324675324</v>
       </c>
       <c r="E88" s="49">
         <v>91744</v>
@@ -8242,16 +8243,16 @@
       <c r="A89" s="48">
         <v>43979</v>
       </c>
-      <c r="B89" s="78">
-        <v>102734</v>
+      <c r="B89">
+        <v>101753</v>
       </c>
       <c r="C89" s="88">
         <f t="shared" si="9"/>
-        <v>155.65757575757576</v>
+        <v>154.17121212121211</v>
       </c>
       <c r="D89" s="88">
         <f t="shared" si="23"/>
-        <v>126.92922077922078</v>
+        <v>126.20216450216449</v>
       </c>
       <c r="E89" s="49">
         <v>93743</v>
@@ -8334,16 +8335,16 @@
       <c r="A90" s="48">
         <v>43980</v>
       </c>
-      <c r="B90" s="78">
-        <v>106552</v>
+      <c r="B90">
+        <v>105459</v>
       </c>
       <c r="C90" s="88">
         <f t="shared" si="9"/>
-        <v>161.44242424242424</v>
+        <v>159.78636363636363</v>
       </c>
       <c r="D90" s="88">
         <f t="shared" si="23"/>
-        <v>130.04805194805195</v>
+        <v>129.28939393939393</v>
       </c>
       <c r="E90" s="49">
         <v>95758</v>
@@ -8426,16 +8427,16 @@
       <c r="A91" s="48">
         <v>43981</v>
       </c>
-      <c r="B91" s="78">
-        <v>97387</v>
+      <c r="B91">
+        <v>96995</v>
       </c>
       <c r="C91" s="88">
         <f t="shared" si="9"/>
-        <v>147.55606060606061</v>
+        <v>146.96212121212122</v>
       </c>
       <c r="D91" s="88">
         <f t="shared" si="23"/>
-        <v>131.14653679653679</v>
+        <v>130.40497835497837</v>
       </c>
       <c r="E91" s="49">
         <v>97602</v>
@@ -8518,16 +8519,16 @@
       <c r="A92" s="48">
         <v>43982</v>
       </c>
-      <c r="B92" s="78">
-        <v>105434</v>
+      <c r="B92">
+        <v>82243</v>
       </c>
       <c r="C92" s="88">
         <f t="shared" si="9"/>
-        <v>159.74848484848485</v>
+        <v>124.61060606060606</v>
       </c>
       <c r="D92" s="88">
         <f t="shared" si="23"/>
-        <v>141.06017316017315</v>
+        <v>135.33549783549785</v>
       </c>
       <c r="E92" s="49">
         <v>98922</v>
@@ -8610,16 +8611,16 @@
       <c r="A93" s="48">
         <v>43983</v>
       </c>
-      <c r="B93" s="78">
-        <v>101571</v>
+      <c r="B93">
+        <v>70648</v>
       </c>
       <c r="C93" s="88">
         <f t="shared" si="9"/>
-        <v>153.89545454545456</v>
+        <v>107.04242424242425</v>
       </c>
       <c r="D93" s="88">
         <f t="shared" si="23"/>
-        <v>146.058658008658</v>
+        <v>133.6608225108225</v>
       </c>
       <c r="E93" s="49">
         <v>99841</v>
@@ -8702,16 +8703,16 @@
       <c r="A94" s="48">
         <v>43984</v>
       </c>
-      <c r="B94" s="78">
-        <v>129183</v>
+      <c r="B94">
+        <v>92299</v>
       </c>
       <c r="C94" s="88">
         <f t="shared" si="9"/>
-        <v>195.73181818181817</v>
+        <v>139.84696969696969</v>
       </c>
       <c r="D94" s="88">
         <f t="shared" si="23"/>
-        <v>157.11580086580085</v>
+        <v>136.81103896103895</v>
       </c>
       <c r="E94" s="49">
         <v>101377</v>
@@ -8794,16 +8795,16 @@
       <c r="A95" s="48">
         <v>43985</v>
       </c>
-      <c r="B95" s="78">
-        <v>143443</v>
+      <c r="B95">
+        <v>101885</v>
       </c>
       <c r="C95" s="88">
         <f t="shared" si="9"/>
-        <v>217.33787878787879</v>
+        <v>154.37121212121212</v>
       </c>
       <c r="D95" s="88">
         <f t="shared" si="23"/>
-        <v>170.19567099567101</v>
+        <v>140.97012987012985</v>
       </c>
       <c r="E95" s="49">
         <v>103069</v>
@@ -8886,16 +8887,16 @@
       <c r="A96" s="48">
         <v>43986</v>
       </c>
-      <c r="B96" s="78">
-        <v>144224</v>
+      <c r="B96">
+        <v>99484</v>
       </c>
       <c r="C96" s="88">
         <f t="shared" ref="C96:C159" si="24">B96/660</f>
-        <v>218.52121212121213</v>
+        <v>150.73333333333332</v>
       </c>
       <c r="D96" s="88">
         <f t="shared" si="23"/>
-        <v>179.17619047619047</v>
+        <v>140.47900432900434</v>
       </c>
       <c r="E96" s="49">
         <v>105048</v>
@@ -8978,16 +8979,16 @@
       <c r="A97" s="48">
         <v>43987</v>
       </c>
-      <c r="B97" s="78">
-        <v>145009</v>
+      <c r="B97">
+        <v>101961</v>
       </c>
       <c r="C97" s="88">
         <f t="shared" si="24"/>
-        <v>219.71060606060607</v>
+        <v>154.48636363636365</v>
       </c>
       <c r="D97" s="88">
         <f t="shared" si="23"/>
-        <v>187.50021645021647</v>
+        <v>139.72186147186147</v>
       </c>
       <c r="E97" s="49">
         <v>107180</v>
@@ -9070,16 +9071,16 @@
       <c r="A98" s="48">
         <v>43988</v>
       </c>
-      <c r="B98" s="78">
-        <v>117581</v>
+      <c r="B98">
+        <v>93154</v>
       </c>
       <c r="C98" s="88">
         <f t="shared" si="24"/>
-        <v>178.15303030303031</v>
+        <v>141.14242424242425</v>
       </c>
       <c r="D98" s="88">
         <f t="shared" si="23"/>
-        <v>191.87121212121215</v>
+        <v>138.89047619047619</v>
       </c>
       <c r="E98" s="49">
         <v>108940</v>
@@ -9162,16 +9163,16 @@
       <c r="A99" s="48">
         <v>43989</v>
       </c>
-      <c r="B99" s="78">
-        <v>104122</v>
+      <c r="B99">
+        <v>86926</v>
       </c>
       <c r="C99" s="88">
         <f t="shared" si="24"/>
-        <v>157.76060606060605</v>
+        <v>131.70606060606062</v>
       </c>
       <c r="D99" s="88">
         <f t="shared" si="23"/>
-        <v>191.58722943722947</v>
+        <v>139.90411255411257</v>
       </c>
       <c r="E99" s="49">
         <v>110391</v>
@@ -9254,16 +9255,16 @@
       <c r="A100" s="48">
         <v>43990</v>
       </c>
-      <c r="B100" s="78">
-        <v>98445</v>
+      <c r="B100">
+        <v>69999</v>
       </c>
       <c r="C100" s="88">
         <f t="shared" si="24"/>
-        <v>149.15909090909091</v>
+        <v>106.05909090909091</v>
       </c>
       <c r="D100" s="88">
         <f t="shared" si="23"/>
-        <v>190.91060606060609</v>
+        <v>139.76363636363638</v>
       </c>
       <c r="E100" s="49">
         <v>111565</v>
@@ -9346,16 +9347,16 @@
       <c r="A101" s="48">
         <v>43991</v>
       </c>
-      <c r="B101" s="78">
-        <v>133102</v>
+      <c r="B101">
+        <v>93959</v>
       </c>
       <c r="C101" s="88">
         <f t="shared" si="24"/>
-        <v>201.66969696969696</v>
+        <v>142.36212121212122</v>
       </c>
       <c r="D101" s="88">
         <f t="shared" si="23"/>
-        <v>191.75887445887449</v>
+        <v>140.12294372294372</v>
       </c>
       <c r="E101" s="49">
         <v>112842</v>
@@ -9438,16 +9439,16 @@
       <c r="A102" s="48">
         <v>43992</v>
       </c>
-      <c r="B102" s="78">
-        <v>145509</v>
+      <c r="B102">
+        <v>101033</v>
       </c>
       <c r="C102" s="88">
         <f t="shared" si="24"/>
-        <v>220.46818181818182</v>
+        <v>153.08030303030304</v>
       </c>
       <c r="D102" s="88">
         <f t="shared" si="23"/>
-        <v>192.20606060606062</v>
+        <v>139.93852813852817</v>
       </c>
       <c r="E102" s="49">
         <v>114439</v>
@@ -9530,16 +9531,16 @@
       <c r="A103" s="48">
         <v>43993</v>
       </c>
-      <c r="B103" s="78">
-        <v>149344</v>
+      <c r="B103">
+        <v>101778</v>
       </c>
       <c r="C103" s="88">
         <f t="shared" si="24"/>
-        <v>226.27878787878788</v>
+        <v>154.20909090909092</v>
       </c>
       <c r="D103" s="88">
         <f t="shared" si="23"/>
-        <v>193.31428571428569</v>
+        <v>140.43506493506496</v>
       </c>
       <c r="E103" s="49">
         <v>116319</v>
@@ -9622,16 +9623,16 @@
       <c r="A104" s="48">
         <v>43994</v>
       </c>
-      <c r="B104" s="78">
-        <v>147099</v>
+      <c r="B104">
+        <v>98375</v>
       </c>
       <c r="C104" s="88">
         <f t="shared" si="24"/>
-        <v>222.87727272727273</v>
+        <v>149.05303030303031</v>
       </c>
       <c r="D104" s="88">
         <f t="shared" si="23"/>
-        <v>193.76666666666668</v>
+        <v>139.65887445887446</v>
       </c>
       <c r="E104" s="49">
         <v>118185</v>
@@ -9714,16 +9715,16 @@
       <c r="A105" s="48">
         <v>43995</v>
       </c>
-      <c r="B105" s="78">
-        <v>120409</v>
+      <c r="B105">
+        <v>98974</v>
       </c>
       <c r="C105" s="88">
         <f t="shared" si="24"/>
-        <v>182.43787878787879</v>
+        <v>149.96060606060607</v>
       </c>
       <c r="D105" s="88">
         <f t="shared" si="23"/>
-        <v>194.3787878787879</v>
+        <v>140.91861471861472</v>
       </c>
       <c r="E105" s="49">
         <v>120416</v>
@@ -9806,16 +9807,16 @@
       <c r="A106" s="57">
         <v>43996</v>
       </c>
-      <c r="B106" s="78">
-        <v>83965</v>
+      <c r="B106">
+        <v>69529</v>
       </c>
       <c r="C106" s="88">
         <f t="shared" si="24"/>
-        <v>127.21969696969697</v>
+        <v>105.34696969696969</v>
       </c>
       <c r="D106" s="88">
         <f t="shared" si="23"/>
-        <v>190.01580086580086</v>
+        <v>137.15303030303031</v>
       </c>
       <c r="E106" s="58">
         <v>121883</v>
@@ -9898,16 +9899,16 @@
       <c r="A107" s="48">
         <v>43997</v>
       </c>
-      <c r="B107" s="78">
-        <v>101337</v>
+      <c r="B107">
+        <v>71402</v>
       </c>
       <c r="C107" s="88">
         <f t="shared" si="24"/>
-        <v>153.54090909090908</v>
+        <v>108.18484848484849</v>
       </c>
       <c r="D107" s="88">
         <f t="shared" si="23"/>
-        <v>190.6417748917749</v>
+        <v>137.45670995670997</v>
       </c>
       <c r="E107" s="49">
         <v>192929</v>
@@ -9990,16 +9991,16 @@
       <c r="A108" s="48">
         <v>43998</v>
       </c>
-      <c r="B108" s="78">
-        <v>122435</v>
+      <c r="B108">
+        <v>80862</v>
       </c>
       <c r="C108" s="88">
         <f t="shared" si="24"/>
-        <v>185.50757575757575</v>
+        <v>122.51818181818182</v>
       </c>
       <c r="D108" s="88">
         <f t="shared" si="23"/>
-        <v>188.33290043290043</v>
+        <v>134.62186147186148</v>
       </c>
       <c r="E108" s="49">
         <v>195482</v>
@@ -10082,16 +10083,16 @@
       <c r="A109" s="48">
         <v>43999</v>
       </c>
-      <c r="B109" s="78">
-        <v>131631</v>
+      <c r="B109">
+        <v>86438</v>
       </c>
       <c r="C109" s="88">
         <f t="shared" si="24"/>
-        <v>199.44090909090909</v>
+        <v>130.96666666666667</v>
       </c>
       <c r="D109" s="88">
         <f t="shared" si="23"/>
-        <v>185.32900432900433</v>
+        <v>131.46277056277057</v>
       </c>
       <c r="E109" s="49">
         <v>198677</v>
@@ -10174,16 +10175,16 @@
       <c r="A110" s="48">
         <v>44000</v>
       </c>
-      <c r="B110" s="78">
-        <v>135854</v>
+      <c r="B110">
+        <v>89613</v>
       </c>
       <c r="C110" s="88">
         <f t="shared" si="24"/>
-        <v>205.83939393939394</v>
+        <v>135.77727272727273</v>
       </c>
       <c r="D110" s="88">
         <f t="shared" si="23"/>
-        <v>182.40909090909091</v>
+        <v>128.82965367965366</v>
       </c>
       <c r="E110" s="49">
         <v>202121</v>
@@ -10266,16 +10267,16 @@
       <c r="A111" s="48">
         <v>44001</v>
       </c>
-      <c r="B111" s="78">
-        <v>133535</v>
+      <c r="B111">
+        <v>90547</v>
       </c>
       <c r="C111" s="88">
         <f t="shared" si="24"/>
-        <v>202.32575757575756</v>
+        <v>137.19242424242424</v>
       </c>
       <c r="D111" s="88">
         <f t="shared" si="23"/>
-        <v>179.47316017316012</v>
+        <v>127.13528138528139</v>
       </c>
       <c r="E111" s="49">
         <v>204412</v>
@@ -10358,16 +10359,16 @@
       <c r="A112" s="48">
         <v>44002</v>
       </c>
-      <c r="B112" s="78">
-        <v>117971</v>
+      <c r="B112">
+        <v>83467</v>
       </c>
       <c r="C112" s="88">
         <f t="shared" si="24"/>
-        <v>178.7439393939394</v>
+        <v>126.46515151515152</v>
       </c>
       <c r="D112" s="88">
         <f t="shared" si="23"/>
-        <v>178.94545454545457</v>
+        <v>123.77878787878788</v>
       </c>
       <c r="E112" s="49">
         <v>209953</v>
@@ -10450,16 +10451,16 @@
       <c r="A113" s="48">
         <v>44003</v>
       </c>
-      <c r="B113" s="78">
-        <v>76514</v>
+      <c r="B113">
+        <v>60484</v>
       </c>
       <c r="C113" s="88">
         <f t="shared" si="24"/>
-        <v>115.93030303030304</v>
+        <v>91.642424242424241</v>
       </c>
       <c r="D113" s="88">
         <f t="shared" si="23"/>
-        <v>177.33268398268402</v>
+        <v>121.82099567099566</v>
       </c>
       <c r="E113" s="49">
         <v>213369</v>
@@ -10542,16 +10543,16 @@
       <c r="A114" s="48">
         <v>44004</v>
       </c>
-      <c r="B114" s="78">
-        <v>102957</v>
+      <c r="B114">
+        <v>63026</v>
       </c>
       <c r="C114" s="88">
         <f t="shared" si="24"/>
-        <v>155.99545454545455</v>
+        <v>95.493939393939399</v>
       </c>
       <c r="D114" s="88">
         <f t="shared" si="23"/>
-        <v>177.68333333333334</v>
+        <v>120.00800865800866</v>
       </c>
       <c r="E114" s="49">
         <v>215365</v>
@@ -10634,16 +10635,16 @@
       <c r="A115" s="48">
         <v>44005</v>
       </c>
-      <c r="B115" s="78">
-        <v>130680</v>
+      <c r="B115">
+        <v>73646</v>
       </c>
       <c r="C115" s="88">
         <f t="shared" si="24"/>
-        <v>198</v>
+        <v>111.58484848484848</v>
       </c>
       <c r="D115" s="88">
         <f t="shared" si="23"/>
-        <v>179.46796536796538</v>
+        <v>118.44610389610389</v>
       </c>
       <c r="E115" s="49">
         <v>217177</v>
@@ -10726,16 +10727,16 @@
       <c r="A116" s="48">
         <v>44006</v>
       </c>
-      <c r="B116" s="78">
-        <v>140303</v>
+      <c r="B116">
+        <v>91135</v>
       </c>
       <c r="C116" s="88">
         <f t="shared" si="24"/>
-        <v>212.58030303030304</v>
+        <v>138.08333333333334</v>
       </c>
       <c r="D116" s="88">
         <f t="shared" si="23"/>
-        <v>181.34502164502163</v>
+        <v>119.46277056277059</v>
       </c>
       <c r="E116" s="49">
         <v>219885</v>
@@ -10818,16 +10819,16 @@
       <c r="A117" s="48">
         <v>44007</v>
       </c>
-      <c r="B117" s="78">
-        <v>155176</v>
+      <c r="B117">
+        <v>108124</v>
       </c>
       <c r="C117" s="88">
         <f t="shared" si="24"/>
-        <v>235.11515151515152</v>
+        <v>163.82424242424241</v>
       </c>
       <c r="D117" s="88">
         <f t="shared" si="23"/>
-        <v>185.5272727272727</v>
+        <v>123.46948051948051</v>
       </c>
       <c r="E117" s="49">
         <v>224314</v>
@@ -10910,16 +10911,16 @@
       <c r="A118" s="48">
         <v>44008</v>
       </c>
-      <c r="B118" s="78">
-        <v>144928</v>
+      <c r="B118">
+        <v>105971</v>
       </c>
       <c r="C118" s="88">
         <f t="shared" si="24"/>
-        <v>219.58787878787879</v>
+        <v>160.56212121212121</v>
       </c>
       <c r="D118" s="88">
         <f t="shared" si="23"/>
-        <v>187.99329004329005</v>
+        <v>126.80800865800863</v>
       </c>
       <c r="E118" s="49">
         <v>230168</v>
@@ -11002,16 +11003,16 @@
       <c r="A119" s="48">
         <v>44009</v>
       </c>
-      <c r="B119" s="78">
-        <v>117741</v>
+      <c r="B119">
+        <v>100631</v>
       </c>
       <c r="C119" s="88">
         <f t="shared" si="24"/>
-        <v>178.39545454545456</v>
+        <v>152.47121212121212</v>
       </c>
       <c r="D119" s="88">
         <f t="shared" si="23"/>
-        <v>187.9435064935065</v>
+        <v>130.52316017316016</v>
       </c>
       <c r="E119" s="49">
         <v>232995</v>
@@ -11094,16 +11095,16 @@
       <c r="A120" s="48">
         <v>44010</v>
       </c>
-      <c r="B120" s="78">
-        <v>90229</v>
+      <c r="B120">
+        <v>83157</v>
       </c>
       <c r="C120" s="88">
         <f t="shared" si="24"/>
-        <v>136.71060606060607</v>
+        <v>125.99545454545455</v>
       </c>
       <c r="D120" s="88">
         <f t="shared" si="23"/>
-        <v>190.91212121212124</v>
+        <v>135.43073593073592</v>
       </c>
       <c r="E120" s="49">
         <v>237191</v>
@@ -11187,16 +11188,16 @@
       <c r="A121" s="48">
         <v>44011</v>
       </c>
-      <c r="B121" s="78">
-        <v>105384</v>
+      <c r="B121">
+        <v>75662</v>
       </c>
       <c r="C121" s="88">
         <f t="shared" si="24"/>
-        <v>159.67272727272729</v>
+        <v>114.63939393939394</v>
       </c>
       <c r="D121" s="88">
         <f t="shared" si="23"/>
-        <v>191.4374458874459</v>
+        <v>138.16580086580086</v>
       </c>
       <c r="E121" s="49">
         <v>240158</v>
@@ -11279,16 +11280,16 @@
       <c r="A122" s="48">
         <v>44012</v>
       </c>
-      <c r="B122" s="78">
-        <v>144787</v>
+      <c r="B122">
+        <v>112164</v>
       </c>
       <c r="C122" s="88">
         <f t="shared" si="24"/>
-        <v>219.37424242424242</v>
+        <v>169.94545454545454</v>
       </c>
       <c r="D122" s="88">
         <f t="shared" si="23"/>
-        <v>194.4909090909091</v>
+        <v>146.5030303030303</v>
       </c>
       <c r="E122" s="49">
         <v>242085</v>
@@ -11371,16 +11372,16 @@
       <c r="A123" s="48">
         <v>44013</v>
       </c>
-      <c r="B123" s="78">
-        <v>157131</v>
+      <c r="B123">
+        <v>123348</v>
       </c>
       <c r="C123" s="88">
         <f t="shared" si="24"/>
-        <v>238.07727272727271</v>
+        <v>186.8909090909091</v>
       </c>
       <c r="D123" s="88">
         <f t="shared" si="23"/>
-        <v>198.1333333333333</v>
+        <v>153.47554112554116</v>
       </c>
       <c r="E123" s="49">
         <v>245341</v>
@@ -11463,16 +11464,16 @@
       <c r="A124" s="48">
         <v>44014</v>
       </c>
-      <c r="B124" s="78">
-        <v>169259</v>
+      <c r="B124">
+        <v>136186</v>
       </c>
       <c r="C124" s="88">
         <f t="shared" si="24"/>
-        <v>256.45303030303029</v>
+        <v>206.34242424242424</v>
       </c>
       <c r="D124" s="88">
         <f t="shared" si="23"/>
-        <v>201.18160173160177</v>
+        <v>159.5495670995671</v>
       </c>
       <c r="E124" s="49">
         <v>249107</v>
@@ -11555,16 +11556,16 @@
       <c r="A125" s="48">
         <v>44015</v>
       </c>
-      <c r="B125" s="78">
-        <v>172566</v>
+      <c r="B125">
+        <v>139218</v>
       </c>
       <c r="C125" s="88">
         <f t="shared" si="24"/>
-        <v>261.46363636363634</v>
+        <v>210.93636363636364</v>
       </c>
       <c r="D125" s="88">
         <f t="shared" si="23"/>
-        <v>207.16385281385283</v>
+        <v>166.74588744588746</v>
       </c>
       <c r="E125" s="49">
         <v>253738</v>
@@ -11647,16 +11648,16 @@
       <c r="A126" s="48">
         <v>44016</v>
       </c>
-      <c r="B126" s="78">
-        <v>126100</v>
+      <c r="B126">
+        <v>114274</v>
       </c>
       <c r="C126" s="88">
         <f t="shared" si="24"/>
-        <v>191.06060606060606</v>
+        <v>173.14242424242425</v>
       </c>
       <c r="D126" s="88">
         <f t="shared" si="23"/>
-        <v>208.97316017316015</v>
+        <v>169.69891774891775</v>
       </c>
       <c r="E126" s="49">
         <v>257464</v>
@@ -11739,16 +11740,16 @@
       <c r="A127" s="48">
         <v>44017</v>
       </c>
-      <c r="B127" s="78">
-        <v>97315</v>
+      <c r="B127">
+        <v>92774</v>
       </c>
       <c r="C127" s="88">
         <f t="shared" si="24"/>
-        <v>147.44696969696969</v>
+        <v>140.56666666666666</v>
       </c>
       <c r="D127" s="88">
         <f t="shared" si="23"/>
-        <v>210.5069264069264</v>
+        <v>171.78051948051947</v>
       </c>
       <c r="E127" s="49">
         <v>260587</v>
@@ -11831,16 +11832,16 @@
       <c r="A128" s="48">
         <v>44018</v>
       </c>
-      <c r="B128" s="78">
-        <v>94284</v>
+      <c r="B128">
+        <v>77469</v>
       </c>
       <c r="C128" s="88">
         <f t="shared" si="24"/>
-        <v>142.85454545454544</v>
+        <v>117.37727272727273</v>
       </c>
       <c r="D128" s="88">
         <f t="shared" si="23"/>
-        <v>208.10432900432897</v>
+        <v>172.17164502164502</v>
       </c>
       <c r="E128" s="49">
         <v>263441</v>
@@ -11923,16 +11924,16 @@
       <c r="A129" s="48">
         <v>44019</v>
       </c>
-      <c r="B129" s="78">
-        <v>126238</v>
+      <c r="B129">
+        <v>106977</v>
       </c>
       <c r="C129" s="88">
         <f t="shared" si="24"/>
-        <v>191.26969696969698</v>
+        <v>162.08636363636364</v>
       </c>
       <c r="D129" s="88">
         <f t="shared" si="23"/>
-        <v>204.08939393939391</v>
+        <v>171.04891774891775</v>
       </c>
       <c r="E129" s="49">
         <v>265202</v>
@@ -12015,16 +12016,16 @@
       <c r="A130" s="44">
         <v>44020</v>
       </c>
-      <c r="B130" s="78">
-        <v>153092</v>
+      <c r="B130">
+        <v>127389</v>
       </c>
       <c r="C130" s="88">
         <f t="shared" si="24"/>
-        <v>231.95757575757577</v>
+        <v>193.01363636363635</v>
       </c>
       <c r="D130" s="88">
         <f t="shared" si="23"/>
-        <v>203.21515151515155</v>
+        <v>171.92359307359308</v>
       </c>
       <c r="E130" s="49">
         <v>267598</v>
@@ -12107,16 +12108,16 @@
       <c r="A131" s="44">
         <v>44021</v>
       </c>
-      <c r="B131" s="78">
-        <v>161796</v>
+      <c r="B131">
+        <v>137861</v>
       </c>
       <c r="C131" s="88">
         <f t="shared" si="24"/>
-        <v>245.14545454545456</v>
+        <v>208.88030303030303</v>
       </c>
       <c r="D131" s="88">
         <f t="shared" si="23"/>
-        <v>201.59978354978355</v>
+        <v>172.28614718614719</v>
       </c>
       <c r="E131" s="49">
         <v>271331</v>
@@ -12199,16 +12200,16 @@
       <c r="A132" s="44">
         <v>44022</v>
       </c>
-      <c r="B132" s="78">
-        <v>154864</v>
+      <c r="B132">
+        <v>134030</v>
       </c>
       <c r="C132" s="88">
         <f t="shared" si="24"/>
-        <v>234.64242424242425</v>
+        <v>203.07575757575756</v>
       </c>
       <c r="D132" s="88">
         <f t="shared" si="23"/>
-        <v>197.76818181818183</v>
+        <v>171.16320346320347</v>
       </c>
       <c r="E132" s="49">
         <v>276042</v>
@@ -12291,16 +12292,16 @@
       <c r="A133" s="44">
         <v>44023</v>
       </c>
-      <c r="B133" s="78">
-        <v>134890</v>
+      <c r="B133">
+        <v>126549</v>
       </c>
       <c r="C133" s="88">
         <f t="shared" si="24"/>
-        <v>204.37878787878788</v>
+        <v>191.7409090909091</v>
       </c>
       <c r="D133" s="88">
         <f t="shared" si="23"/>
-        <v>199.67077922077922</v>
+        <v>173.82012987012988</v>
       </c>
       <c r="E133" s="49">
         <v>278962</v>
@@ -12383,16 +12384,16 @@
       <c r="A134" s="44">
         <v>44024</v>
       </c>
-      <c r="B134" s="78">
-        <v>101927</v>
+      <c r="B134">
+        <v>94700</v>
       </c>
       <c r="C134" s="88">
         <f t="shared" si="24"/>
-        <v>154.43484848484849</v>
+        <v>143.4848484848485</v>
       </c>
       <c r="D134" s="88">
         <f t="shared" si="23"/>
-        <v>200.66904761904766</v>
+        <v>174.237012987013</v>
       </c>
       <c r="E134" s="49">
         <v>282499</v>
@@ -12475,16 +12476,16 @@
       <c r="A135" s="44">
         <v>44025</v>
       </c>
-      <c r="B135" s="78">
-        <v>97403</v>
+      <c r="B135">
+        <v>85880</v>
       </c>
       <c r="C135" s="88">
         <f t="shared" si="24"/>
-        <v>147.58030303030304</v>
+        <v>130.12121212121212</v>
       </c>
       <c r="D135" s="88">
         <f t="shared" si="23"/>
-        <v>201.34415584415586</v>
+        <v>176.05757575757576</v>
       </c>
       <c r="E135" s="49">
         <v>284447</v>
@@ -12567,16 +12568,16 @@
       <c r="A136" s="44">
         <v>44026</v>
       </c>
-      <c r="B136" s="78">
-        <v>132121</v>
+      <c r="B136">
+        <v>118186</v>
       </c>
       <c r="C136" s="88">
         <f t="shared" si="24"/>
-        <v>200.18333333333334</v>
+        <v>179.06969696969696</v>
       </c>
       <c r="D136" s="88">
         <f t="shared" si="23"/>
-        <v>202.61753246753247</v>
+        <v>178.4837662337662</v>
       </c>
       <c r="E136" s="49">
         <v>286605</v>
@@ -12659,16 +12660,16 @@
       <c r="A137" s="44">
         <v>44027</v>
       </c>
-      <c r="B137" s="78">
-        <v>152063</v>
+      <c r="B137">
+        <v>137828</v>
       </c>
       <c r="C137" s="88">
         <f t="shared" si="24"/>
-        <v>230.39848484848486</v>
+        <v>208.83030303030304</v>
       </c>
       <c r="D137" s="88">
         <f t="shared" si="23"/>
-        <v>202.39480519480523</v>
+        <v>180.74329004329005</v>
       </c>
       <c r="E137" s="49">
         <v>289673</v>
@@ -12751,16 +12752,16 @@
       <c r="A138" s="44">
         <v>44028</v>
       </c>
-      <c r="B138" s="78">
-        <v>165966</v>
+      <c r="B138">
+        <v>150975</v>
       </c>
       <c r="C138" s="88">
         <f t="shared" si="24"/>
-        <v>251.46363636363637</v>
+        <v>228.75</v>
       </c>
       <c r="D138" s="88">
         <f t="shared" si="23"/>
-        <v>203.29740259740262</v>
+        <v>183.58181818181816</v>
       </c>
       <c r="E138" s="49">
         <v>292260</v>
@@ -12843,16 +12844,16 @@
       <c r="A139" s="44">
         <v>44029</v>
       </c>
-      <c r="B139" s="78">
-        <v>177625</v>
+      <c r="B139">
+        <v>164440</v>
       </c>
       <c r="C139" s="88">
         <f t="shared" si="24"/>
-        <v>269.12878787878788</v>
+        <v>249.15151515151516</v>
       </c>
       <c r="D139" s="88">
         <f t="shared" ref="D139:D202" si="37">SUM(C133:C139)/7</f>
-        <v>208.22402597402592</v>
+        <v>190.16406926406927</v>
       </c>
       <c r="E139" s="49">
         <v>296497</v>
@@ -12935,16 +12936,16 @@
       <c r="A140" s="44">
         <v>44030</v>
       </c>
-      <c r="B140" s="78">
-        <v>140393</v>
+      <c r="B140">
+        <v>135779</v>
       </c>
       <c r="C140" s="88">
         <f t="shared" si="24"/>
-        <v>212.71666666666667</v>
+        <v>205.72575757575757</v>
       </c>
       <c r="D140" s="88">
         <f t="shared" si="37"/>
-        <v>209.41515151515154</v>
+        <v>192.16190476190476</v>
       </c>
       <c r="E140" s="49">
         <v>299939</v>
@@ -13027,16 +13028,16 @@
       <c r="A141" s="44">
         <v>44031</v>
       </c>
-      <c r="B141" s="78">
-        <v>120968</v>
+      <c r="B141">
+        <v>114222</v>
       </c>
       <c r="C141" s="88">
         <f t="shared" si="24"/>
-        <v>183.28484848484848</v>
+        <v>173.06363636363636</v>
       </c>
       <c r="D141" s="88">
         <f t="shared" si="37"/>
-        <v>213.53658008658007</v>
+        <v>196.38744588744586</v>
       </c>
       <c r="E141" s="49">
         <v>303309</v>
@@ -13119,16 +13120,16 @@
       <c r="A142" s="44">
         <v>44032</v>
       </c>
-      <c r="B142" s="78">
-        <v>101741</v>
+      <c r="B142">
+        <v>92518</v>
       </c>
       <c r="C142" s="88">
         <f t="shared" si="24"/>
-        <v>154.15303030303031</v>
+        <v>140.17878787878789</v>
       </c>
       <c r="D142" s="88">
         <f t="shared" si="37"/>
-        <v>214.47554112554116</v>
+        <v>197.82424242424241</v>
       </c>
       <c r="E142" s="49">
         <v>305000</v>
@@ -13211,16 +13212,16 @@
       <c r="A143" s="44">
         <v>44033</v>
       </c>
-      <c r="B143" s="78">
-        <v>142559</v>
+      <c r="B143">
+        <v>132626</v>
       </c>
       <c r="C143" s="88">
         <f t="shared" si="24"/>
-        <v>215.99848484848485</v>
+        <v>200.94848484848484</v>
       </c>
       <c r="D143" s="88">
         <f t="shared" si="37"/>
-        <v>216.7348484848485</v>
+        <v>200.94978354978358</v>
       </c>
       <c r="E143" s="49">
         <v>307893</v>
@@ -13303,16 +13304,16 @@
       <c r="A144" s="44">
         <v>44034</v>
       </c>
-      <c r="B144" s="78">
-        <v>147595</v>
+      <c r="B144">
+        <v>137234</v>
       </c>
       <c r="C144" s="88">
         <f t="shared" si="24"/>
-        <v>223.62878787878788</v>
+        <v>207.93030303030304</v>
       </c>
       <c r="D144" s="88">
         <f t="shared" si="37"/>
-        <v>215.76774891774889</v>
+        <v>200.82121212121214</v>
       </c>
       <c r="E144" s="49">
         <v>311478</v>
@@ -13395,16 +13396,16 @@
       <c r="A145" s="44">
         <v>44035</v>
       </c>
-      <c r="B145" s="78">
-        <v>152133</v>
+      <c r="B145">
+        <v>141117</v>
       </c>
       <c r="C145" s="88">
         <f t="shared" si="24"/>
-        <v>230.50454545454545</v>
+        <v>213.81363636363636</v>
       </c>
       <c r="D145" s="88">
         <f t="shared" si="37"/>
-        <v>212.77359307359305</v>
+        <v>198.6874458874459</v>
       </c>
       <c r="E145" s="49">
         <v>315113</v>
@@ -13487,16 +13488,16 @@
       <c r="A146" s="44">
         <v>44036</v>
       </c>
-      <c r="B146" s="78">
-        <v>157229</v>
+      <c r="B146">
+        <v>147292</v>
       </c>
       <c r="C146" s="88">
         <f t="shared" si="24"/>
-        <v>238.22575757575757</v>
+        <v>223.16969696969696</v>
       </c>
       <c r="D146" s="88">
         <f t="shared" si="37"/>
-        <v>208.35887445887445</v>
+        <v>194.9757575757576</v>
       </c>
       <c r="E146" s="49">
         <v>318999</v>
@@ -13579,16 +13580,16 @@
       <c r="A147" s="44">
         <v>44037</v>
       </c>
-      <c r="B147" s="78">
-        <v>142954</v>
+      <c r="B147">
+        <v>139062</v>
       </c>
       <c r="C147" s="88">
         <f t="shared" si="24"/>
-        <v>216.59696969696969</v>
+        <v>210.7</v>
       </c>
       <c r="D147" s="88">
         <f t="shared" si="37"/>
-        <v>208.91320346320344</v>
+        <v>195.68636363636367</v>
       </c>
       <c r="E147" s="68">
         <v>323004</v>
@@ -13671,16 +13672,16 @@
       <c r="A148" s="44">
         <v>44038</v>
       </c>
-      <c r="B148" s="78">
-        <v>113424</v>
+      <c r="B148">
+        <v>111801</v>
       </c>
       <c r="C148" s="88">
         <f t="shared" si="24"/>
-        <v>171.85454545454544</v>
+        <v>169.39545454545456</v>
       </c>
       <c r="D148" s="88">
         <f t="shared" si="37"/>
-        <v>207.280303030303</v>
+        <v>195.16233766233765</v>
       </c>
       <c r="E148" s="49">
         <v>325436</v>
@@ -13773,16 +13774,16 @@
       <c r="A149" s="44">
         <v>44039</v>
       </c>
-      <c r="B149" s="78">
-        <v>99090</v>
+      <c r="B149">
+        <v>89565</v>
       </c>
       <c r="C149" s="88">
         <f t="shared" si="24"/>
-        <v>150.13636363636363</v>
+        <v>135.70454545454547</v>
       </c>
       <c r="D149" s="88">
         <f t="shared" si="37"/>
-        <v>206.7064935064935</v>
+        <v>194.52316017316019</v>
       </c>
       <c r="E149" s="49">
         <v>327701</v>
@@ -13865,16 +13866,16 @@
       <c r="A150" s="44">
         <v>44040</v>
       </c>
-      <c r="B150" s="78">
-        <v>154946</v>
+      <c r="B150">
+        <v>147818</v>
       </c>
       <c r="C150" s="88">
         <f t="shared" si="24"/>
-        <v>234.76666666666668</v>
+        <v>223.96666666666667</v>
       </c>
       <c r="D150" s="88">
         <f t="shared" si="37"/>
-        <v>209.38766233766231</v>
+        <v>197.81147186147186</v>
       </c>
       <c r="E150" s="49">
         <v>330665</v>
@@ -13957,16 +13958,16 @@
       <c r="A151" s="44">
         <v>44041</v>
       </c>
-      <c r="B151" s="78">
-        <v>165480</v>
+      <c r="B151">
+        <v>157439</v>
       </c>
       <c r="C151" s="88">
         <f t="shared" si="24"/>
-        <v>250.72727272727272</v>
+        <v>238.54393939393938</v>
       </c>
       <c r="D151" s="88">
         <f t="shared" si="37"/>
-        <v>213.25887445887449</v>
+        <v>202.18484848484849</v>
       </c>
       <c r="E151" s="49">
         <v>333914</v>
@@ -14049,16 +14050,16 @@
       <c r="A152" s="44">
         <v>44042</v>
       </c>
-      <c r="B152" s="78">
-        <v>206656</v>
+      <c r="B152">
+        <v>170027</v>
       </c>
       <c r="C152" s="88">
         <f t="shared" si="24"/>
-        <v>313.11515151515152</v>
+        <v>257.61666666666667</v>
       </c>
       <c r="D152" s="88">
         <f t="shared" si="37"/>
-        <v>225.06038961038959</v>
+        <v>208.44242424242424</v>
       </c>
       <c r="E152" s="49">
         <v>337301</v>
@@ -14141,16 +14142,16 @@
       <c r="A153" s="44">
         <v>44043</v>
       </c>
-      <c r="B153" s="78">
-        <v>190220</v>
+      <c r="B153">
+        <v>164748</v>
       </c>
       <c r="C153" s="88">
         <f t="shared" si="24"/>
-        <v>288.21212121212119</v>
+        <v>249.61818181818182</v>
       </c>
       <c r="D153" s="88">
         <f t="shared" si="37"/>
-        <v>232.20129870129867</v>
+        <v>212.22077922077921</v>
       </c>
       <c r="E153" s="49">
         <v>340910</v>
@@ -14233,16 +14234,16 @@
       <c r="A154" s="44">
         <v>44044</v>
       </c>
-      <c r="B154" s="78">
-        <v>162088</v>
+      <c r="B154">
+        <v>146011</v>
       </c>
       <c r="C154" s="88">
         <f t="shared" si="24"/>
-        <v>245.58787878787879</v>
+        <v>221.22878787878787</v>
       </c>
       <c r="D154" s="88">
         <f t="shared" si="37"/>
-        <v>236.34285714285713</v>
+        <v>213.7248917748918</v>
       </c>
       <c r="E154" s="49">
         <v>344594</v>
@@ -14325,16 +14326,16 @@
       <c r="A155" s="44">
         <v>44045</v>
       </c>
-      <c r="B155" s="78">
-        <v>163786</v>
+      <c r="B155">
+        <v>145568</v>
       </c>
       <c r="C155" s="88">
         <f t="shared" si="24"/>
-        <v>248.16060606060606</v>
+        <v>220.55757575757576</v>
       </c>
       <c r="D155" s="88">
         <f t="shared" si="37"/>
-        <v>247.24372294372296</v>
+        <v>221.03376623376624</v>
       </c>
       <c r="E155" s="49">
         <v>347349</v>
@@ -14417,16 +14418,16 @@
       <c r="A156" s="44">
         <v>44046</v>
       </c>
-      <c r="B156" s="78">
-        <v>158666</v>
+      <c r="B156">
+        <v>144999</v>
       </c>
       <c r="C156" s="88">
         <f t="shared" si="24"/>
-        <v>240.40303030303031</v>
+        <v>219.69545454545454</v>
       </c>
       <c r="D156" s="88">
         <f t="shared" si="37"/>
-        <v>260.13896103896104</v>
+        <v>233.03246753246754</v>
       </c>
       <c r="E156" s="49">
         <v>349786</v>
@@ -14509,16 +14510,16 @@
       <c r="A157" s="44">
         <v>44047</v>
       </c>
-      <c r="B157" s="78">
-        <v>163422</v>
+      <c r="B157">
+        <v>150265</v>
       </c>
       <c r="C157" s="88">
         <f t="shared" si="24"/>
-        <v>247.6090909090909</v>
+        <v>227.67424242424244</v>
       </c>
       <c r="D157" s="88">
         <f t="shared" si="37"/>
-        <v>261.97359307359307</v>
+        <v>233.56212121212121</v>
       </c>
       <c r="E157" s="49">
         <v>352348</v>
@@ -14601,16 +14602,16 @@
       <c r="A158" s="44">
         <v>44048</v>
       </c>
-      <c r="B158" s="78">
-        <v>174519</v>
+      <c r="B158">
+        <v>161111</v>
       </c>
       <c r="C158" s="88">
         <f t="shared" si="24"/>
-        <v>264.42272727272729</v>
+        <v>244.10757575757575</v>
       </c>
       <c r="D158" s="88">
         <f t="shared" si="37"/>
-        <v>263.93008658008659</v>
+        <v>234.35692640692642</v>
       </c>
       <c r="E158" s="49">
         <v>357067</v>
@@ -14693,16 +14694,16 @@
       <c r="A159" s="44">
         <v>44049</v>
       </c>
-      <c r="B159" s="78">
-        <v>185980</v>
+      <c r="B159">
+        <v>174833</v>
       </c>
       <c r="C159" s="88">
         <f t="shared" si="24"/>
-        <v>281.78787878787881</v>
+        <v>264.89848484848483</v>
       </c>
       <c r="D159" s="88">
         <f t="shared" si="37"/>
-        <v>259.45476190476188</v>
+        <v>235.39718614718615</v>
       </c>
       <c r="E159" s="49">
         <v>362624</v>
@@ -14785,16 +14786,16 @@
       <c r="A160" s="44">
         <v>44050</v>
       </c>
-      <c r="B160" s="78">
-        <v>181864</v>
+      <c r="B160">
+        <v>173213</v>
       </c>
       <c r="C160" s="88">
         <f t="shared" ref="C160:C223" si="38">B160/660</f>
-        <v>275.55151515151516</v>
+        <v>262.44393939393939</v>
       </c>
       <c r="D160" s="88">
         <f t="shared" si="37"/>
-        <v>257.64610389610391</v>
+        <v>237.22943722943725</v>
       </c>
       <c r="E160" s="49">
         <v>367323</v>
@@ -14877,16 +14878,16 @@
       <c r="A161" s="75">
         <v>44051</v>
       </c>
-      <c r="B161" s="78">
-        <v>165176</v>
+      <c r="B161">
+        <v>160651</v>
       </c>
       <c r="C161" s="88">
         <f t="shared" si="38"/>
-        <v>250.26666666666668</v>
+        <v>243.41060606060606</v>
       </c>
       <c r="D161" s="88">
         <f t="shared" si="37"/>
-        <v>258.31450216450213</v>
+        <v>240.39826839826841</v>
       </c>
       <c r="E161" s="49">
         <v>371825</v>
@@ -14969,16 +14970,16 @@
       <c r="A162" s="75">
         <v>44052</v>
       </c>
-      <c r="B162" s="78">
-        <v>166207</v>
+      <c r="B162">
+        <v>162990</v>
       </c>
       <c r="C162" s="88">
         <f t="shared" si="38"/>
-        <v>251.82878787878789</v>
+        <v>246.95454545454547</v>
       </c>
       <c r="D162" s="88">
         <f t="shared" si="37"/>
-        <v>258.83852813852815</v>
+        <v>244.16926406926407</v>
       </c>
       <c r="E162" s="49">
         <v>375457</v>
@@ -15061,16 +15062,16 @@
       <c r="A163" s="75">
         <v>44053</v>
       </c>
-      <c r="B163" s="78">
-        <v>164061</v>
+      <c r="B163">
+        <v>152498</v>
       </c>
       <c r="C163" s="88">
         <f t="shared" si="38"/>
-        <v>248.57727272727271</v>
+        <v>231.05757575757576</v>
       </c>
       <c r="D163" s="88">
         <f t="shared" si="37"/>
-        <v>260.00627705627704</v>
+        <v>245.79242424242423</v>
       </c>
       <c r="E163" s="49">
         <v>379133</v>
@@ -15153,16 +15154,16 @@
       <c r="A164" s="75">
         <v>44054</v>
       </c>
-      <c r="B164" s="78">
-        <v>166311</v>
+      <c r="B164">
+        <v>157558</v>
       </c>
       <c r="C164" s="88">
         <f t="shared" si="38"/>
-        <v>251.98636363636365</v>
+        <v>238.72424242424242</v>
       </c>
       <c r="D164" s="88">
         <f t="shared" si="37"/>
-        <v>260.63160173160173</v>
+        <v>247.37099567099565</v>
       </c>
       <c r="E164" s="49">
         <v>383463</v>
@@ -15245,16 +15246,16 @@
       <c r="A165" s="75">
         <v>44055</v>
       </c>
-      <c r="B165" s="78">
-        <v>184444</v>
+      <c r="B165">
+        <v>176489</v>
       </c>
       <c r="C165" s="88">
         <f t="shared" si="38"/>
-        <v>279.46060606060604</v>
+        <v>267.40757575757578</v>
       </c>
       <c r="D165" s="88">
         <f t="shared" si="37"/>
-        <v>262.77987012987012</v>
+        <v>250.6995670995671</v>
       </c>
       <c r="E165" s="49">
         <v>388097</v>
@@ -15337,16 +15338,16 @@
       <c r="A166" s="75">
         <v>44056</v>
       </c>
-      <c r="B166" s="78">
-        <v>169857</v>
+      <c r="B166">
+        <v>163470</v>
       </c>
       <c r="C166" s="88">
         <f t="shared" si="38"/>
-        <v>257.35909090909092</v>
+        <v>247.68181818181819</v>
       </c>
       <c r="D166" s="88">
         <f t="shared" si="37"/>
-        <v>259.29004329004329</v>
+        <v>248.24004329004333</v>
       </c>
       <c r="E166" s="49">
         <v>392530</v>
@@ -15429,16 +15430,16 @@
       <c r="A167" s="75">
         <v>44057</v>
       </c>
-      <c r="B167" s="78">
-        <v>177957</v>
+      <c r="B167">
+        <v>170441</v>
       </c>
       <c r="C167" s="88">
         <f t="shared" si="38"/>
-        <v>269.63181818181818</v>
+        <v>258.2439393939394</v>
       </c>
       <c r="D167" s="88">
         <f t="shared" si="37"/>
-        <v>258.44437229437233</v>
+        <v>247.64004329004334</v>
       </c>
       <c r="E167" s="49">
         <v>396630</v>
@@ -15521,16 +15522,16 @@
       <c r="A168" s="75">
         <v>44058</v>
       </c>
-      <c r="B168" s="78">
-        <v>182987</v>
+      <c r="B168">
+        <v>180197</v>
       </c>
       <c r="C168" s="88">
         <f t="shared" si="38"/>
-        <v>277.2530303030303</v>
+        <v>273.02575757575755</v>
       </c>
       <c r="D168" s="88">
         <f t="shared" si="37"/>
-        <v>262.29956709956707</v>
+        <v>251.87077922077924</v>
       </c>
       <c r="E168" s="49">
         <v>401033</v>
@@ -15613,16 +15614,16 @@
       <c r="A169" s="75">
         <v>44059</v>
       </c>
-      <c r="B169" s="78">
-        <v>169276</v>
+      <c r="B169">
+        <v>168144</v>
       </c>
       <c r="C169" s="88">
         <f t="shared" si="38"/>
-        <v>256.4787878787879</v>
+        <v>254.76363636363635</v>
       </c>
       <c r="D169" s="88">
         <f t="shared" si="37"/>
-        <v>262.96385281385284</v>
+        <v>252.98636363636365</v>
       </c>
       <c r="E169" s="49">
         <v>405079</v>
@@ -15705,16 +15706,16 @@
       <c r="A170" s="75">
         <v>44060</v>
       </c>
-      <c r="B170" s="78">
-        <v>150174</v>
+      <c r="B170">
+        <v>146264</v>
       </c>
       <c r="C170" s="88">
         <f t="shared" si="38"/>
-        <v>227.53636363636363</v>
+        <v>221.61212121212122</v>
       </c>
       <c r="D170" s="88">
         <f t="shared" si="37"/>
-        <v>259.95800865800868</v>
+        <v>251.63701298701295</v>
       </c>
       <c r="E170" s="49">
         <v>408770</v>
@@ -15797,16 +15798,16 @@
       <c r="A171" s="75">
         <v>44061</v>
       </c>
-      <c r="B171" s="78">
-        <v>163010</v>
+      <c r="B171">
+        <v>157194</v>
       </c>
       <c r="C171" s="88">
         <f t="shared" si="38"/>
-        <v>246.9848484848485</v>
+        <v>238.17272727272729</v>
       </c>
       <c r="D171" s="88">
         <f t="shared" si="37"/>
-        <v>259.24350649350652</v>
+        <v>251.55822510822512</v>
       </c>
       <c r="E171" s="49">
         <v>413442</v>
@@ -15894,16 +15895,16 @@
       <c r="A172" s="75">
         <v>44062</v>
       </c>
-      <c r="B172" s="78">
-        <v>190434</v>
+      <c r="B172">
+        <v>181358</v>
       </c>
       <c r="C172" s="88">
         <f t="shared" si="38"/>
-        <v>288.53636363636366</v>
+        <v>274.78484848484851</v>
       </c>
       <c r="D172" s="88">
         <f t="shared" si="37"/>
-        <v>260.54004329004329</v>
+        <v>252.61212121212125</v>
       </c>
       <c r="E172" s="49">
         <v>418800</v>
@@ -15991,16 +15992,16 @@
       <c r="A173" s="75">
         <v>44063</v>
       </c>
-      <c r="B173" s="78">
-        <v>183933</v>
+      <c r="B173">
+        <v>174250</v>
       </c>
       <c r="C173" s="88">
         <f t="shared" si="38"/>
-        <v>278.68636363636364</v>
+        <v>264.0151515151515</v>
       </c>
       <c r="D173" s="88">
         <f t="shared" si="37"/>
-        <v>263.58679653679656</v>
+        <v>254.94545454545454</v>
       </c>
       <c r="E173" s="49">
         <v>426744</v>
@@ -16088,16 +16089,16 @@
       <c r="A174" s="75">
         <v>44064</v>
       </c>
-      <c r="B174" s="78">
-        <v>191360</v>
+      <c r="B174">
+        <v>181878</v>
       </c>
       <c r="C174" s="88">
         <f t="shared" si="38"/>
-        <v>289.93939393939394</v>
+        <v>275.57272727272726</v>
       </c>
       <c r="D174" s="88">
         <f t="shared" si="37"/>
-        <v>266.4878787878788</v>
+        <v>257.42099567099564</v>
       </c>
       <c r="E174" s="49">
         <v>433472</v>
@@ -16185,16 +16186,16 @@
       <c r="A175" s="75">
         <v>44065</v>
       </c>
-      <c r="B175" s="78">
-        <v>181455</v>
+      <c r="B175">
+        <v>177279</v>
       </c>
       <c r="C175" s="88">
         <f t="shared" si="38"/>
-        <v>274.93181818181819</v>
+        <v>268.60454545454547</v>
       </c>
       <c r="D175" s="88">
         <f t="shared" si="37"/>
-        <v>266.15627705627708</v>
+        <v>256.7893939393939</v>
       </c>
       <c r="E175" s="49">
         <v>441439</v>
@@ -16282,16 +16283,16 @@
       <c r="A176" s="75">
         <v>44066</v>
       </c>
-      <c r="B176" s="78">
-        <v>175209</v>
+      <c r="B176">
+        <v>165455</v>
       </c>
       <c r="C176" s="88">
         <f t="shared" si="38"/>
-        <v>265.46818181818179</v>
+        <v>250.68939393939394</v>
       </c>
       <c r="D176" s="88">
         <f t="shared" si="37"/>
-        <v>267.4404761904762</v>
+        <v>256.2073593073593</v>
       </c>
       <c r="E176" s="49">
         <v>450691</v>
@@ -16379,16 +16380,16 @@
       <c r="A177" s="75">
         <v>44067</v>
       </c>
-      <c r="B177" s="78">
-        <v>153393</v>
+      <c r="B177">
+        <v>147940</v>
       </c>
       <c r="C177" s="88">
         <f t="shared" si="38"/>
-        <v>232.41363636363636</v>
+        <v>224.15151515151516</v>
       </c>
       <c r="D177" s="88">
         <f t="shared" si="37"/>
-        <v>268.13722943722945</v>
+        <v>256.5701298701299</v>
       </c>
       <c r="E177" s="49">
         <v>456917</v>
@@ -16482,16 +16483,16 @@
       <c r="A178" s="75">
         <v>44068</v>
       </c>
-      <c r="B178" s="78">
-        <v>186500</v>
+      <c r="B178">
+        <v>179602</v>
       </c>
       <c r="C178" s="88">
         <f t="shared" si="38"/>
-        <v>282.57575757575756</v>
+        <v>272.12424242424242</v>
       </c>
       <c r="D178" s="88">
         <f t="shared" si="37"/>
-        <v>273.22164502164503</v>
+        <v>261.42034632034631</v>
       </c>
       <c r="E178" s="49">
         <v>462273</v>
@@ -16585,16 +16586,16 @@
       <c r="A179" s="75">
         <v>44069</v>
       </c>
-      <c r="B179" s="78">
-        <v>208835</v>
+      <c r="B179">
+        <v>206143</v>
       </c>
       <c r="C179" s="88">
         <f t="shared" si="38"/>
-        <v>316.41666666666669</v>
+        <v>312.33787878787876</v>
       </c>
       <c r="D179" s="88">
         <f t="shared" si="37"/>
-        <v>277.20454545454544</v>
+        <v>266.7850649350649</v>
       </c>
       <c r="E179" s="49">
         <v>474696</v>
@@ -16688,16 +16689,16 @@
       <c r="A180" s="75">
         <v>44070</v>
       </c>
-      <c r="B180" s="78">
-        <v>203416</v>
+      <c r="B180">
+        <v>194522</v>
       </c>
       <c r="C180" s="88">
         <f t="shared" si="38"/>
-        <v>308.20606060606059</v>
+        <v>294.73030303030305</v>
       </c>
       <c r="D180" s="88">
         <f t="shared" si="37"/>
-        <v>281.42164502164502</v>
+        <v>271.17294372294373</v>
       </c>
       <c r="E180" s="49">
         <v>490756</v>
@@ -16791,16 +16792,16 @@
       <c r="A181" s="75">
         <v>44071</v>
       </c>
-      <c r="B181" s="78">
-        <v>197211</v>
+      <c r="B181">
+        <v>188974</v>
       </c>
       <c r="C181" s="88">
         <f t="shared" si="38"/>
-        <v>298.80454545454546</v>
+        <v>286.32424242424241</v>
       </c>
       <c r="D181" s="88">
         <f t="shared" si="37"/>
-        <v>282.68809523809523</v>
+        <v>272.70887445887445</v>
       </c>
       <c r="E181" s="49">
         <v>499655</v>
@@ -16894,16 +16895,16 @@
       <c r="A182" s="75">
         <v>44072</v>
       </c>
-      <c r="B182" s="78">
-        <v>183510</v>
+      <c r="B182">
+        <v>180033</v>
       </c>
       <c r="C182" s="88">
         <f t="shared" si="38"/>
-        <v>278.04545454545456</v>
+        <v>272.7772727272727</v>
       </c>
       <c r="D182" s="88">
         <f t="shared" si="37"/>
-        <v>283.13290043290044</v>
+        <v>273.30497835497835</v>
       </c>
       <c r="E182" s="49">
         <v>511940</v>
@@ -16997,16 +16998,16 @@
       <c r="A183" s="75">
         <v>44073</v>
       </c>
-      <c r="B183" s="78">
-        <v>182065</v>
+      <c r="B183">
+        <v>181038</v>
       </c>
       <c r="C183" s="88">
         <f t="shared" si="38"/>
-        <v>275.85606060606062</v>
+        <v>274.3</v>
       </c>
       <c r="D183" s="88">
         <f t="shared" si="37"/>
-        <v>284.61688311688312</v>
+        <v>276.67792207792206</v>
       </c>
       <c r="E183" s="49">
         <v>527972</v>
@@ -17100,16 +17101,16 @@
       <c r="A184" s="75">
         <v>44074</v>
       </c>
-      <c r="B184" s="78">
-        <v>181934</v>
+      <c r="B184">
+        <v>180368</v>
       </c>
       <c r="C184" s="88">
         <f t="shared" si="38"/>
-        <v>275.65757575757578</v>
+        <v>273.28484848484851</v>
       </c>
       <c r="D184" s="88">
         <f t="shared" si="37"/>
-        <v>290.79458874458874</v>
+        <v>283.69696969696969</v>
       </c>
       <c r="E184" s="49">
         <v>544807</v>
@@ -17203,16 +17204,16 @@
       <c r="A185" s="75">
         <v>44075</v>
       </c>
-      <c r="B185" s="78">
-        <v>175687</v>
+      <c r="B185">
+        <v>171339</v>
       </c>
       <c r="C185" s="88">
         <f t="shared" si="38"/>
-        <v>266.19242424242424</v>
+        <v>259.60454545454547</v>
       </c>
       <c r="D185" s="88">
         <f t="shared" si="37"/>
-        <v>288.45411255411256</v>
+        <v>281.90844155844155</v>
       </c>
       <c r="E185" s="49">
         <v>557342</v>
@@ -17306,16 +17307,16 @@
       <c r="A186" s="75">
         <v>44076</v>
       </c>
-      <c r="B186" s="78">
-        <v>203221</v>
+      <c r="B186">
+        <v>196734</v>
       </c>
       <c r="C186" s="88">
         <f t="shared" si="38"/>
-        <v>307.91060606060609</v>
+        <v>298.08181818181816</v>
       </c>
       <c r="D186" s="88">
         <f t="shared" si="37"/>
-        <v>287.23896103896107</v>
+        <v>279.87186147186145</v>
       </c>
       <c r="E186" s="49">
         <v>573067</v>
@@ -17409,16 +17410,16 @@
       <c r="A187" s="75">
         <v>44077</v>
       </c>
-      <c r="B187" s="78">
-        <v>206883</v>
+      <c r="B187">
+        <v>198603</v>
       </c>
       <c r="C187" s="88">
         <f t="shared" si="38"/>
-        <v>313.45909090909089</v>
+        <v>300.91363636363639</v>
       </c>
       <c r="D187" s="88">
         <f t="shared" si="37"/>
-        <v>287.98939393939401</v>
+        <v>280.75519480519478</v>
       </c>
       <c r="E187" s="49">
         <v>581906</v>
@@ -17512,16 +17513,16 @@
       <c r="A188" s="75">
         <v>44078</v>
       </c>
-      <c r="B188" s="78">
-        <v>210463</v>
+      <c r="B188">
+        <v>202893</v>
       </c>
       <c r="C188" s="88">
         <f t="shared" si="38"/>
-        <v>318.88333333333333</v>
+        <v>307.41363636363639</v>
       </c>
       <c r="D188" s="88">
         <f t="shared" si="37"/>
-        <v>290.85779220779222</v>
+        <v>283.76796536796536</v>
       </c>
       <c r="E188" s="49">
         <v>591942</v>
@@ -17615,16 +17616,16 @@
       <c r="A189" s="75">
         <v>44079</v>
       </c>
-      <c r="B189" s="78">
-        <v>191588</v>
+      <c r="B189">
+        <v>189054</v>
       </c>
       <c r="C189" s="88">
         <f t="shared" si="38"/>
-        <v>290.28484848484851</v>
+        <v>286.44545454545454</v>
       </c>
       <c r="D189" s="88">
         <f t="shared" si="37"/>
-        <v>292.60627705627712</v>
+        <v>285.72056277056282</v>
       </c>
       <c r="E189" s="49">
         <v>600929</v>
@@ -17718,16 +17719,16 @@
       <c r="A190" s="75">
         <v>44080</v>
       </c>
-      <c r="B190" s="78">
-        <v>189974</v>
+      <c r="B190">
+        <v>192892</v>
       </c>
       <c r="C190" s="88">
         <f t="shared" si="38"/>
-        <v>287.83939393939391</v>
+        <v>292.26060606060605</v>
       </c>
       <c r="D190" s="88">
         <f t="shared" si="37"/>
-        <v>294.31818181818181</v>
+        <v>288.28636363636366</v>
       </c>
       <c r="E190" s="49">
         <v>609956</v>
@@ -17821,16 +17822,16 @@
       <c r="A191" s="75">
         <v>44081</v>
       </c>
-      <c r="B191" s="78">
-        <v>195692</v>
+      <c r="B191">
+        <v>201965</v>
       </c>
       <c r="C191" s="88">
         <f t="shared" si="38"/>
-        <v>296.5030303030303</v>
+        <v>306.00757575757575</v>
       </c>
       <c r="D191" s="88">
         <f t="shared" si="37"/>
-        <v>297.29610389610389</v>
+        <v>292.96103896103898</v>
       </c>
       <c r="E191" s="49">
         <v>615918</v>
@@ -17924,16 +17925,16 @@
       <c r="A192" s="75">
         <v>44082</v>
       </c>
-      <c r="B192" s="78">
-        <v>209609</v>
+      <c r="B192">
+        <v>202809</v>
       </c>
       <c r="C192" s="88">
         <f t="shared" si="38"/>
-        <v>317.58939393939391</v>
+        <v>307.28636363636366</v>
       </c>
       <c r="D192" s="88">
         <f t="shared" si="37"/>
-        <v>304.63852813852816</v>
+        <v>299.77272727272731</v>
       </c>
       <c r="E192" s="49">
         <v>623464</v>
@@ -18027,16 +18028,16 @@
       <c r="A193" s="75">
         <v>44083</v>
       </c>
-      <c r="B193" s="78">
-        <v>227465</v>
+      <c r="B193">
+        <v>220626</v>
       </c>
       <c r="C193" s="88">
         <f t="shared" si="38"/>
-        <v>344.64393939393938</v>
+        <v>334.28181818181821</v>
       </c>
       <c r="D193" s="88">
         <f t="shared" si="37"/>
-        <v>309.88614718614718</v>
+        <v>304.94415584415583</v>
       </c>
       <c r="E193" s="49">
         <v>631562</v>
@@ -18130,16 +18131,16 @@
       <c r="A194" s="75">
         <v>44084</v>
       </c>
-      <c r="B194" s="78">
-        <v>240312</v>
+      <c r="B194">
+        <v>233125</v>
       </c>
       <c r="C194" s="88">
         <f t="shared" si="38"/>
-        <v>364.10909090909092</v>
+        <v>353.219696969697</v>
       </c>
       <c r="D194" s="88">
         <f t="shared" si="37"/>
-        <v>317.12186147186145</v>
+        <v>312.41645021645024</v>
       </c>
       <c r="E194" s="49">
         <v>640094</v>
@@ -18233,16 +18234,16 @@
       <c r="A195" s="75">
         <v>44085</v>
       </c>
-      <c r="B195" s="78">
-        <v>250839</v>
+      <c r="B195">
+        <v>241650</v>
       </c>
       <c r="C195" s="88">
         <f t="shared" si="38"/>
-        <v>380.05909090909091</v>
+        <v>366.13636363636363</v>
       </c>
       <c r="D195" s="88">
         <f t="shared" si="37"/>
-        <v>325.86125541125546</v>
+        <v>320.80541125541129</v>
       </c>
       <c r="E195" s="49">
         <v>646376</v>
@@ -18336,16 +18337,16 @@
       <c r="A196" s="75">
         <v>44086</v>
       </c>
-      <c r="B196" s="78">
-        <v>231969</v>
+      <c r="B196">
+        <v>228748</v>
       </c>
       <c r="C196" s="88">
         <f t="shared" si="38"/>
-        <v>351.46818181818179</v>
+        <v>346.58787878787876</v>
       </c>
       <c r="D196" s="88">
         <f t="shared" si="37"/>
-        <v>334.60173160173156</v>
+        <v>329.39718614718612</v>
       </c>
       <c r="E196" s="49">
         <v>654042</v>
@@ -18439,16 +18440,16 @@
       <c r="A197" s="75">
         <v>44087</v>
       </c>
-      <c r="B197" s="78">
-        <v>227075</v>
+      <c r="B197">
+        <v>225380</v>
       </c>
       <c r="C197" s="88">
         <f t="shared" si="38"/>
-        <v>344.05303030303031</v>
+        <v>341.4848484848485</v>
       </c>
       <c r="D197" s="88">
         <f t="shared" si="37"/>
-        <v>342.63225108225106</v>
+        <v>336.42922077922077</v>
       </c>
       <c r="E197" s="49">
         <v>660325</v>
@@ -18542,16 +18543,16 @@
       <c r="A198" s="75">
         <v>44088</v>
       </c>
-      <c r="B198" s="78">
-        <v>221192</v>
+      <c r="B198">
+        <v>216526</v>
       </c>
       <c r="C198" s="88">
         <f t="shared" si="38"/>
-        <v>335.13939393939393</v>
+        <v>328.06969696969696</v>
       </c>
       <c r="D198" s="88">
         <f t="shared" si="37"/>
-        <v>348.15173160173163</v>
+        <v>339.5809523809524</v>
       </c>
       <c r="E198" s="49">
         <v>662877</v>
@@ -18645,16 +18646,16 @@
       <c r="A199" s="75">
         <v>44089</v>
       </c>
-      <c r="B199" s="78">
-        <v>288822</v>
+      <c r="B199">
+        <v>236827</v>
       </c>
       <c r="C199" s="88">
         <f t="shared" si="38"/>
-        <v>437.60909090909092</v>
+        <v>358.82878787878786</v>
       </c>
       <c r="D199" s="88">
         <f t="shared" si="37"/>
-        <v>365.29740259740259</v>
+        <v>346.94415584415583</v>
       </c>
       <c r="E199" s="49">
         <v>670022</v>
@@ -18748,16 +18749,16 @@
       <c r="A200" s="75">
         <v>44090</v>
       </c>
-      <c r="B200" s="78">
-        <v>285296</v>
+      <c r="B200">
+        <v>242273</v>
       </c>
       <c r="C200" s="88">
         <f t="shared" si="38"/>
-        <v>432.26666666666665</v>
+        <v>367.08030303030301</v>
       </c>
       <c r="D200" s="88">
         <f t="shared" si="37"/>
-        <v>377.81493506493501</v>
+        <v>351.6296536796537</v>
       </c>
       <c r="E200" s="49">
         <v>677104</v>
@@ -18851,16 +18852,16 @@
       <c r="A201" s="75">
         <v>44091</v>
       </c>
-      <c r="B201" s="78">
-        <v>267294</v>
+      <c r="B201">
+        <v>240202</v>
       </c>
       <c r="C201" s="88">
         <f t="shared" si="38"/>
-        <v>404.9909090909091</v>
+        <v>363.94242424242424</v>
       </c>
       <c r="D201" s="88">
         <f t="shared" si="37"/>
-        <v>383.65519480519475</v>
+        <v>353.16147186147185</v>
       </c>
       <c r="E201" s="49">
         <v>684109</v>
@@ -18954,16 +18955,16 @@
       <c r="A202" s="75">
         <v>44092</v>
       </c>
-      <c r="B202" s="78">
-        <v>289911</v>
+      <c r="B202">
+        <v>266308</v>
       </c>
       <c r="C202" s="88">
         <f t="shared" si="38"/>
-        <v>439.2590909090909</v>
+        <v>403.4969696969697</v>
       </c>
       <c r="D202" s="88">
         <f t="shared" si="37"/>
-        <v>392.11233766233761</v>
+        <v>358.49870129870123</v>
       </c>
       <c r="E202" s="49">
         <v>688545</v>
@@ -19057,16 +19058,16 @@
       <c r="A203" s="75">
         <v>44093</v>
       </c>
-      <c r="B203" s="78">
-        <v>265697</v>
+      <c r="B203">
+        <v>250954</v>
       </c>
       <c r="C203" s="88">
         <f t="shared" si="38"/>
-        <v>402.57121212121211</v>
+        <v>380.23333333333335</v>
       </c>
       <c r="D203" s="88">
         <f t="shared" ref="D203:D266" si="55">SUM(C197:C203)/7</f>
-        <v>399.41277056277062</v>
+        <v>363.30519480519484</v>
       </c>
       <c r="E203" s="49">
         <v>694828</v>
@@ -19160,16 +19161,16 @@
       <c r="A204" s="75">
         <v>44094</v>
       </c>
-      <c r="B204" s="78">
-        <v>247099</v>
+      <c r="B204">
+        <v>234786</v>
       </c>
       <c r="C204" s="88">
         <f t="shared" si="38"/>
-        <v>374.39242424242423</v>
+        <v>355.73636363636365</v>
       </c>
       <c r="D204" s="88">
         <f t="shared" si="55"/>
-        <v>403.7469696969697</v>
+        <v>365.34112554112551</v>
       </c>
       <c r="E204" s="49">
         <v>699085</v>
@@ -19263,16 +19264,16 @@
       <c r="A205" s="75">
         <v>44095</v>
       </c>
-      <c r="B205" s="78">
-        <v>218059</v>
+      <c r="B205">
+        <v>206782</v>
       </c>
       <c r="C205" s="88">
         <f t="shared" si="38"/>
-        <v>330.39242424242423</v>
+        <v>313.30606060606061</v>
       </c>
       <c r="D205" s="88">
         <f t="shared" si="55"/>
-        <v>403.0688311688312</v>
+        <v>363.2320346320347</v>
       </c>
       <c r="E205" s="49">
         <v>702850</v>
@@ -19366,16 +19367,16 @@
       <c r="A206" s="75">
         <v>44096</v>
       </c>
-      <c r="B206" s="78">
-        <v>246359</v>
+      <c r="B206">
+        <v>234815</v>
       </c>
       <c r="C206" s="88">
         <f t="shared" si="38"/>
-        <v>373.2712121212121</v>
+        <v>355.780303030303</v>
       </c>
       <c r="D206" s="88">
         <f t="shared" si="55"/>
-        <v>393.87770562770555</v>
+        <v>362.79653679653677</v>
       </c>
       <c r="E206" s="49">
         <v>707491</v>
@@ -19469,16 +19470,16 @@
       <c r="A207" s="75">
         <v>44097</v>
       </c>
-      <c r="B207" s="78">
-        <v>269428</v>
+      <c r="B207">
+        <v>259221</v>
       </c>
       <c r="C207" s="88">
         <f t="shared" si="38"/>
-        <v>408.22424242424245</v>
+        <v>392.7590909090909</v>
       </c>
       <c r="D207" s="88">
         <f t="shared" si="55"/>
-        <v>390.44307359307356</v>
+        <v>366.4649350649351</v>
       </c>
       <c r="E207" s="49">
         <v>713238</v>
@@ -19572,16 +19573,16 @@
       <c r="A208" s="75">
         <v>44098</v>
       </c>
-      <c r="B208" s="78">
-        <v>274768</v>
+      <c r="B208">
+        <v>262109</v>
       </c>
       <c r="C208" s="88">
         <f t="shared" si="38"/>
-        <v>416.31515151515151</v>
+        <v>397.13484848484848</v>
       </c>
       <c r="D208" s="88">
         <f t="shared" si="55"/>
-        <v>392.06082251082256</v>
+        <v>371.20670995670997</v>
       </c>
       <c r="E208" s="49">
         <v>718693</v>
@@ -19675,16 +19676,16 @@
       <c r="A209" s="75">
         <v>44099</v>
       </c>
-      <c r="B209" s="78">
-        <v>298718</v>
+      <c r="B209">
+        <v>288701</v>
       </c>
       <c r="C209" s="88">
         <f t="shared" si="38"/>
-        <v>452.60303030303032</v>
+        <v>437.42575757575759</v>
       </c>
       <c r="D209" s="88">
         <f t="shared" si="55"/>
-        <v>393.96709956709952</v>
+        <v>376.05367965367958</v>
       </c>
       <c r="E209" s="49">
         <v>724011</v>
@@ -19778,16 +19779,16 @@
       <c r="A210" s="75">
         <v>44100</v>
       </c>
-      <c r="B210" s="78">
-        <v>260297</v>
+      <c r="B210">
+        <v>255488</v>
       </c>
       <c r="C210" s="88">
         <f t="shared" si="38"/>
-        <v>394.38939393939393</v>
+        <v>387.10303030303032</v>
       </c>
       <c r="D210" s="88">
         <f t="shared" si="55"/>
-        <v>392.79826839826836</v>
+        <v>377.0350649350649</v>
       </c>
       <c r="E210" s="49">
         <v>729518</v>
@@ -19881,16 +19882,16 @@
       <c r="A211" s="75">
         <v>44101</v>
       </c>
-      <c r="B211" s="78">
-        <v>267438</v>
+      <c r="B211">
+        <v>263526</v>
       </c>
       <c r="C211" s="88">
         <f t="shared" si="38"/>
-        <v>405.20909090909089</v>
+        <v>399.28181818181821</v>
       </c>
       <c r="D211" s="88">
         <f t="shared" si="55"/>
-        <v>397.20064935064931</v>
+        <v>383.25584415584416</v>
       </c>
       <c r="E211" s="49">
         <v>732944</v>
@@ -19984,16 +19985,16 @@
       <c r="A212" s="75">
         <v>44102</v>
       </c>
-      <c r="B212" s="78">
-        <v>231923</v>
+      <c r="B212">
+        <v>227038</v>
       </c>
       <c r="C212" s="88">
         <f t="shared" si="38"/>
-        <v>351.39848484848483</v>
+        <v>343.9969696969697</v>
       </c>
       <c r="D212" s="88">
         <f t="shared" si="55"/>
-        <v>400.20151515151508</v>
+        <v>387.64025974025981</v>
       </c>
       <c r="E212" s="49">
         <v>735937</v>
@@ -20087,16 +20088,16 @@
       <c r="A213" s="75">
         <v>44103</v>
       </c>
-      <c r="B213" s="78">
-        <v>237300</v>
+      <c r="B213">
+        <v>232212</v>
       </c>
       <c r="C213" s="88">
         <f t="shared" si="38"/>
-        <v>359.54545454545456</v>
+        <v>351.83636363636361</v>
       </c>
       <c r="D213" s="88">
         <f t="shared" si="55"/>
-        <v>398.24069264069254</v>
+        <v>387.07683982683983</v>
       </c>
       <c r="E213" s="49">
         <v>742125</v>
@@ -20190,16 +20191,16 @@
       <c r="A214" s="75">
         <v>44104</v>
       </c>
-      <c r="B214" s="78">
-        <v>261798</v>
+      <c r="B214">
+        <v>255915</v>
       </c>
       <c r="C214" s="88">
         <f t="shared" si="38"/>
-        <v>396.66363636363639</v>
+        <v>387.75</v>
       </c>
       <c r="D214" s="88">
         <f t="shared" si="55"/>
-        <v>396.58917748917747</v>
+        <v>386.3612554112554</v>
       </c>
       <c r="E214" s="49">
         <v>747715</v>
@@ -20293,16 +20294,16 @@
       <c r="A215" s="75">
         <v>44105</v>
       </c>
-      <c r="B215" s="78">
-        <v>271552</v>
+      <c r="B215">
+        <v>264979</v>
       </c>
       <c r="C215" s="88">
         <f t="shared" si="38"/>
-        <v>411.44242424242424</v>
+        <v>401.48333333333335</v>
       </c>
       <c r="D215" s="88">
         <f t="shared" si="55"/>
-        <v>395.89307359307355</v>
+        <v>386.98246753246752</v>
       </c>
       <c r="E215" s="49">
         <v>753239</v>
@@ -20396,16 +20397,16 @@
       <c r="A216" s="75">
         <v>44106</v>
       </c>
-      <c r="B216" s="78">
-        <v>276740</v>
+      <c r="B216">
+        <v>269820</v>
       </c>
       <c r="C216" s="88">
         <f t="shared" si="38"/>
-        <v>419.30303030303031</v>
+        <v>408.81818181818181</v>
       </c>
       <c r="D216" s="88">
         <f t="shared" si="55"/>
-        <v>391.13593073593074</v>
+        <v>382.89567099567103</v>
       </c>
       <c r="E216" s="49">
         <v>758614</v>
@@ -20499,16 +20500,16 @@
       <c r="A217" s="75">
         <v>44107</v>
       </c>
-      <c r="B217" s="78">
-        <v>288746</v>
+      <c r="B217">
+        <v>286802</v>
       </c>
       <c r="C217" s="88">
         <f t="shared" si="38"/>
-        <v>437.4939393939394</v>
+        <v>434.54848484848486</v>
       </c>
       <c r="D217" s="88">
         <f t="shared" si="55"/>
-        <v>397.29372294372297</v>
+        <v>389.67359307359305</v>
       </c>
       <c r="E217" s="49">
         <v>764178</v>
@@ -20602,16 +20603,16 @@
       <c r="A218" s="75">
         <v>44108</v>
       </c>
-      <c r="B218" s="78">
-        <v>251623</v>
+      <c r="B218">
+        <v>250348</v>
       </c>
       <c r="C218" s="88">
         <f t="shared" si="38"/>
-        <v>381.2469696969697</v>
+        <v>379.31515151515151</v>
       </c>
       <c r="D218" s="88">
         <f t="shared" si="55"/>
-        <v>393.87056277056274</v>
+        <v>386.82121212121217</v>
       </c>
       <c r="E218" s="49">
         <v>769110</v>
@@ -20705,16 +20706,16 @@
       <c r="A219" s="75">
         <v>44109</v>
       </c>
-      <c r="B219" s="78">
-        <v>276603</v>
+      <c r="B219">
+        <v>273100</v>
       </c>
       <c r="C219" s="88">
         <f t="shared" si="38"/>
-        <v>419.09545454545457</v>
+        <v>413.78787878787881</v>
       </c>
       <c r="D219" s="88">
         <f t="shared" si="55"/>
-        <v>403.54155844155849</v>
+        <v>396.79134199134199</v>
       </c>
       <c r="E219" s="49">
         <v>773873</v>
@@ -20808,16 +20809,16 @@
       <c r="A220" s="75">
         <v>44110</v>
       </c>
-      <c r="B220" s="78">
-        <v>265809</v>
+      <c r="B220">
+        <v>261336</v>
       </c>
       <c r="C220" s="88">
         <f t="shared" si="38"/>
-        <v>402.7409090909091</v>
+        <v>395.96363636363634</v>
       </c>
       <c r="D220" s="88">
         <f t="shared" si="55"/>
-        <v>409.71233766233769</v>
+        <v>403.09523809523807</v>
       </c>
       <c r="E220" s="49">
         <v>779156</v>
@@ -20911,16 +20912,16 @@
       <c r="A221" s="75">
         <v>44111</v>
       </c>
-      <c r="B221" s="78">
-        <v>259544</v>
+      <c r="B221">
+        <v>254579</v>
       </c>
       <c r="C221" s="88">
         <f t="shared" si="38"/>
-        <v>393.24848484848485</v>
+        <v>385.7257575757576</v>
       </c>
       <c r="D221" s="88">
         <f t="shared" si="55"/>
-        <v>409.22445887445883</v>
+        <v>402.80606060606061</v>
       </c>
       <c r="E221" s="49">
         <v>786226</v>
@@ -21014,16 +21015,16 @@
       <c r="A222" s="75">
         <v>44112</v>
       </c>
-      <c r="B222" s="78">
-        <v>290104</v>
+      <c r="B222">
+        <v>285015</v>
       </c>
       <c r="C222" s="88">
         <f t="shared" si="38"/>
-        <v>439.55151515151516</v>
+        <v>431.84090909090907</v>
       </c>
       <c r="D222" s="88">
         <f t="shared" si="55"/>
-        <v>413.24004329004327</v>
+        <v>407.14285714285717</v>
       </c>
       <c r="E222" s="49">
         <v>792809</v>
@@ -21117,16 +21118,16 @@
       <c r="A223" s="75">
         <v>44113</v>
       </c>
-      <c r="B223" s="78">
-        <v>302820</v>
+      <c r="B223">
+        <v>296559</v>
       </c>
       <c r="C223" s="88">
         <f t="shared" si="38"/>
-        <v>458.81818181818181</v>
+        <v>449.33181818181816</v>
       </c>
       <c r="D223" s="88">
         <f t="shared" si="55"/>
-        <v>418.88506493506503</v>
+        <v>412.93051948051954</v>
       </c>
       <c r="E223" s="49">
         <v>799277</v>
@@ -21220,16 +21221,16 @@
       <c r="A224" s="75">
         <v>44114</v>
       </c>
-      <c r="B224" s="78">
-        <v>281976</v>
+      <c r="B224">
+        <v>279606</v>
       </c>
       <c r="C224" s="88">
         <f t="shared" ref="C224:C278" si="57">B224/660</f>
-        <v>427.23636363636365</v>
+        <v>423.64545454545453</v>
       </c>
       <c r="D224" s="88">
         <f t="shared" si="55"/>
-        <v>417.41969696969693</v>
+        <v>411.37294372294366</v>
       </c>
       <c r="E224" s="49">
         <v>805407</v>
@@ -21271,7 +21272,7 @@
         <v>5.5838079739625714E-2</v>
       </c>
       <c r="Q224" s="35">
-        <f t="shared" ref="Q224:Q280" si="59">G224-G217</f>
+        <f t="shared" ref="Q224:Q283" si="59">G224-G217</f>
         <v>47820</v>
       </c>
       <c r="R224" s="35">
@@ -21323,16 +21324,16 @@
       <c r="A225" s="75">
         <v>44115</v>
       </c>
-      <c r="B225" s="78">
-        <v>259478</v>
+      <c r="B225">
+        <v>258955</v>
       </c>
       <c r="C225" s="88">
         <f t="shared" si="57"/>
-        <v>393.14848484848483</v>
+        <v>392.35606060606062</v>
       </c>
       <c r="D225" s="88">
         <f t="shared" si="55"/>
-        <v>419.11991341991342</v>
+        <v>413.23593073593071</v>
       </c>
       <c r="E225" s="49">
         <v>810852</v>
@@ -21426,16 +21427,16 @@
       <c r="A226" s="75">
         <v>44116</v>
       </c>
-      <c r="B226" s="78">
-        <v>222047</v>
+      <c r="B226">
+        <v>219074</v>
       </c>
       <c r="C226" s="88">
         <f t="shared" si="57"/>
-        <v>336.43484848484849</v>
+        <v>331.93030303030304</v>
       </c>
       <c r="D226" s="88">
         <f t="shared" si="55"/>
-        <v>407.31125541125533</v>
+        <v>401.54199134199132</v>
       </c>
       <c r="E226" s="49">
         <v>815499</v>
@@ -21529,16 +21530,16 @@
       <c r="A227" s="75">
         <v>44117</v>
       </c>
-      <c r="B227" s="78">
-        <v>268142</v>
+      <c r="B227">
+        <v>264713</v>
       </c>
       <c r="C227" s="88">
         <f t="shared" si="57"/>
-        <v>406.27575757575755</v>
+        <v>401.08030303030301</v>
       </c>
       <c r="D227" s="88">
         <f t="shared" si="55"/>
-        <v>407.81623376623378</v>
+        <v>402.27294372294369</v>
       </c>
       <c r="E227" s="49">
         <v>821737</v>
@@ -21632,16 +21633,16 @@
       <c r="A228" s="75">
         <v>44118</v>
       </c>
-      <c r="B228" s="78">
-        <v>300523</v>
+      <c r="B228">
+        <v>295690</v>
       </c>
       <c r="C228" s="88">
         <f t="shared" si="57"/>
-        <v>455.33787878787876</v>
+        <v>448.0151515151515</v>
       </c>
       <c r="D228" s="88">
         <f t="shared" si="55"/>
-        <v>416.68614718614708</v>
+        <v>411.17142857142863</v>
       </c>
       <c r="E228" s="49">
         <v>829000</v>
@@ -21735,16 +21736,16 @@
       <c r="A229" s="75">
         <v>44119</v>
       </c>
-      <c r="B229" s="78">
-        <v>308856</v>
+      <c r="B229">
+        <v>304315</v>
       </c>
       <c r="C229" s="88">
         <f t="shared" si="57"/>
-        <v>467.96363636363634</v>
+        <v>461.08333333333331</v>
       </c>
       <c r="D229" s="88">
         <f t="shared" si="55"/>
-        <v>420.74502164502161</v>
+        <v>415.34891774891776</v>
       </c>
       <c r="E229" s="49">
         <v>835312</v>
@@ -21838,16 +21839,16 @@
       <c r="A230" s="75">
         <v>44120</v>
       </c>
-      <c r="B230" s="78">
-        <v>318256</v>
+      <c r="B230">
+        <v>312178</v>
       </c>
       <c r="C230" s="88">
         <f t="shared" si="57"/>
-        <v>482.20606060606059</v>
+        <v>472.9969696969697</v>
       </c>
       <c r="D230" s="88">
         <f t="shared" si="55"/>
-        <v>424.08614718614712</v>
+        <v>418.72965367965372</v>
       </c>
       <c r="E230" s="49">
         <v>841175</v>
@@ -21909,7 +21910,7 @@
         <v>6.8386204170372569E-2</v>
       </c>
       <c r="V230" s="37">
-        <f t="shared" ref="V230:V281" si="62">S230/5463.3</f>
+        <f t="shared" ref="V230:V283" si="62">S230/5463.3</f>
         <v>24.078304321563888</v>
       </c>
       <c r="W230" s="91">
@@ -21941,16 +21942,16 @@
       <c r="A231" s="75">
         <v>44121</v>
       </c>
-      <c r="B231" s="78">
-        <v>309642</v>
+      <c r="B231">
+        <v>308416</v>
       </c>
       <c r="C231" s="88">
         <f t="shared" si="57"/>
-        <v>469.15454545454543</v>
+        <v>467.29696969696971</v>
       </c>
       <c r="D231" s="88">
         <f t="shared" si="55"/>
-        <v>430.0744588744588</v>
+        <v>424.96558441558443</v>
       </c>
       <c r="E231" s="49">
         <v>846642</v>
@@ -22044,16 +22045,16 @@
       <c r="A232" s="75">
         <v>44122</v>
       </c>
-      <c r="B232" s="78">
-        <v>307388</v>
+      <c r="B232">
+        <v>306893</v>
       </c>
       <c r="C232" s="88">
         <f t="shared" si="57"/>
-        <v>465.73939393939395</v>
+        <v>464.98939393939395</v>
       </c>
       <c r="D232" s="88">
         <f t="shared" si="55"/>
-        <v>440.44458874458866</v>
+        <v>435.34177489177495</v>
       </c>
       <c r="E232" s="49">
         <v>849138</v>
@@ -22147,16 +22148,16 @@
       <c r="A233" s="75">
         <v>44123</v>
       </c>
-      <c r="B233" s="78">
-        <v>263530</v>
+      <c r="B233">
+        <v>260338</v>
       </c>
       <c r="C233" s="88">
         <f t="shared" si="57"/>
-        <v>399.28787878787881</v>
+        <v>394.45151515151514</v>
       </c>
       <c r="D233" s="88">
         <f t="shared" si="55"/>
-        <v>449.42359307359311</v>
+        <v>444.27337662337658</v>
       </c>
       <c r="E233" s="49">
         <v>853959</v>
@@ -22250,16 +22251,16 @@
       <c r="A234" s="75">
         <v>44124</v>
       </c>
-      <c r="B234" s="78">
-        <v>283882</v>
+      <c r="B234">
+        <v>279996</v>
       </c>
       <c r="C234" s="88">
         <f t="shared" si="57"/>
-        <v>430.12424242424242</v>
+        <v>424.23636363636365</v>
       </c>
       <c r="D234" s="88">
         <f t="shared" si="55"/>
-        <v>452.83051948051946</v>
+        <v>447.58138528138522</v>
       </c>
       <c r="E234" s="49">
         <v>859804</v>
@@ -22353,16 +22354,16 @@
       <c r="A235" s="75">
         <v>44125</v>
       </c>
-      <c r="B235" s="78">
-        <v>314861</v>
+      <c r="B235">
+        <v>310331</v>
       </c>
       <c r="C235" s="88">
         <f t="shared" si="57"/>
-        <v>477.06212121212121</v>
+        <v>470.19848484848484</v>
       </c>
       <c r="D235" s="88">
         <f t="shared" si="55"/>
-        <v>455.93398268398272</v>
+        <v>450.75043290043288</v>
       </c>
       <c r="E235" s="49">
         <v>866847</v>
@@ -22400,7 +22401,7 @@
         <v>1947</v>
       </c>
       <c r="P235" s="99">
-        <f t="shared" ref="P235:P281" si="63">O235/N235</f>
+        <f t="shared" ref="P235:P283" si="63">O235/N235</f>
         <v>9.7345132743362831E-2</v>
       </c>
       <c r="Q235" s="35">
@@ -22456,16 +22457,16 @@
       <c r="A236" s="75">
         <v>44126</v>
       </c>
-      <c r="B236" s="78">
-        <v>343912</v>
+      <c r="B236">
+        <v>340137</v>
       </c>
       <c r="C236" s="88">
         <f t="shared" si="57"/>
-        <v>521.07878787878792</v>
+        <v>515.35909090909092</v>
       </c>
       <c r="D236" s="88">
         <f t="shared" si="55"/>
-        <v>463.52186147186148</v>
+        <v>458.50411255411257</v>
       </c>
       <c r="E236" s="49">
         <v>873781</v>
@@ -22559,16 +22560,16 @@
       <c r="A237" s="75">
         <v>44127</v>
       </c>
-      <c r="B237" s="78">
-        <v>351736</v>
+      <c r="B237">
+        <v>346682</v>
       </c>
       <c r="C237" s="88">
         <f t="shared" si="57"/>
-        <v>532.93333333333328</v>
+        <v>525.27575757575755</v>
       </c>
       <c r="D237" s="88">
         <f t="shared" si="55"/>
-        <v>470.76861471861474</v>
+        <v>465.97251082251074</v>
       </c>
       <c r="E237" s="49">
         <v>879179</v>
@@ -22663,16 +22664,16 @@
       <c r="A238" s="75">
         <v>44128</v>
       </c>
-      <c r="B238" s="78">
-        <v>319359</v>
+      <c r="B238">
+        <v>317896</v>
       </c>
       <c r="C238" s="88">
         <f t="shared" si="57"/>
-        <v>483.87727272727273</v>
+        <v>481.66060606060609</v>
       </c>
       <c r="D238" s="88">
         <f t="shared" si="55"/>
-        <v>472.87186147186145</v>
+        <v>468.02445887445884</v>
       </c>
       <c r="E238" s="49">
         <v>885248</v>
@@ -22766,16 +22767,16 @@
       <c r="A239" s="75">
         <v>44129</v>
       </c>
-      <c r="B239" s="78">
-        <v>321736</v>
+      <c r="B239">
+        <v>321114</v>
       </c>
       <c r="C239" s="88">
         <f t="shared" si="57"/>
-        <v>487.4787878787879</v>
+        <v>486.53636363636366</v>
       </c>
       <c r="D239" s="88">
         <f t="shared" si="55"/>
-        <v>475.97748917748919</v>
+        <v>471.10259740259744</v>
       </c>
       <c r="E239" s="49">
         <v>890792</v>
@@ -22869,16 +22870,16 @@
       <c r="A240" s="75">
         <v>44130</v>
       </c>
-      <c r="B240" s="78">
-        <v>264350</v>
+      <c r="B240">
+        <v>261861</v>
       </c>
       <c r="C240" s="88">
         <f t="shared" si="57"/>
-        <v>400.530303030303</v>
+        <v>396.7590909090909</v>
       </c>
       <c r="D240" s="88">
         <f t="shared" si="55"/>
-        <v>476.15497835497837</v>
+        <v>471.43225108225113</v>
       </c>
       <c r="E240" s="49">
         <v>895790</v>
@@ -22972,16 +22973,16 @@
       <c r="A241" s="75">
         <v>44131</v>
       </c>
-      <c r="B241" s="78">
-        <v>311135</v>
+      <c r="B241">
+        <v>280997</v>
       </c>
       <c r="C241" s="88">
         <f t="shared" si="57"/>
-        <v>471.41666666666669</v>
+        <v>425.7530303030303</v>
       </c>
       <c r="D241" s="88">
         <f t="shared" si="55"/>
-        <v>482.05389610389608</v>
+        <v>471.64891774891777</v>
       </c>
       <c r="E241" s="49">
         <v>901441</v>
@@ -23039,7 +23040,7 @@
         <v>11150</v>
       </c>
       <c r="U241" s="76">
-        <f t="shared" ref="U241:U281" si="64">T241/S241</f>
+        <f t="shared" ref="U241:U283" si="64">T241/S241</f>
         <v>8.5214028598286543E-2</v>
       </c>
       <c r="V241" s="37">
@@ -23075,16 +23076,16 @@
       <c r="A242" s="75">
         <v>44132</v>
       </c>
-      <c r="B242" s="78">
-        <v>343822</v>
+      <c r="B242">
+        <v>308810</v>
       </c>
       <c r="C242" s="88">
         <f t="shared" si="57"/>
-        <v>520.94242424242429</v>
+        <v>467.89393939393938</v>
       </c>
       <c r="D242" s="88">
         <f t="shared" si="55"/>
-        <v>488.32251082251076</v>
+        <v>471.31969696969696</v>
       </c>
       <c r="E242" s="49">
         <v>907766</v>
@@ -23178,16 +23179,16 @@
       <c r="A243" s="75">
         <v>44133</v>
       </c>
-      <c r="B243" s="78">
-        <v>378085</v>
+      <c r="B243">
+        <v>347632</v>
       </c>
       <c r="C243" s="88">
         <f t="shared" si="57"/>
-        <v>572.85606060606062</v>
+        <v>526.71515151515155</v>
       </c>
       <c r="D243" s="88">
         <f t="shared" si="55"/>
-        <v>495.71926406926406</v>
+        <v>472.94199134199141</v>
       </c>
       <c r="E243" s="49">
         <v>913115</v>
@@ -23281,16 +23282,16 @@
       <c r="A244" s="75">
         <v>44134</v>
       </c>
-      <c r="B244" s="78">
-        <v>330237</v>
+      <c r="B244">
+        <v>305207</v>
       </c>
       <c r="C244" s="88">
         <f t="shared" si="57"/>
-        <v>500.35909090909092</v>
+        <v>462.43484848484849</v>
       </c>
       <c r="D244" s="88">
         <f t="shared" si="55"/>
-        <v>491.0658008658009</v>
+        <v>463.96471861471861</v>
       </c>
       <c r="E244" s="49">
         <v>918468</v>
@@ -23384,16 +23385,16 @@
       <c r="A245" s="75">
         <v>44135</v>
       </c>
-      <c r="B245" s="78">
-        <v>308232</v>
+      <c r="B245">
+        <v>292573</v>
       </c>
       <c r="C245" s="88">
         <f t="shared" si="57"/>
-        <v>467.0181818181818</v>
+        <v>443.29242424242426</v>
       </c>
       <c r="D245" s="88">
         <f t="shared" si="55"/>
-        <v>488.65735930735934</v>
+        <v>458.48354978354973</v>
       </c>
       <c r="E245" s="49">
         <v>923576</v>
@@ -23487,16 +23488,16 @@
       <c r="A246" s="75">
         <v>44136</v>
       </c>
-      <c r="B246" s="78">
-        <v>283009</v>
+      <c r="B246">
+        <v>270473</v>
       </c>
       <c r="C246" s="88">
         <f t="shared" si="57"/>
-        <v>428.80151515151516</v>
+        <v>409.80757575757576</v>
       </c>
       <c r="D246" s="88">
         <f t="shared" si="55"/>
-        <v>480.27489177489178</v>
+        <v>447.52229437229437</v>
       </c>
       <c r="E246" s="49">
         <v>928496</v>
@@ -23590,16 +23591,16 @@
       <c r="A247" s="75">
         <v>44137</v>
       </c>
-      <c r="B247" s="78">
-        <v>219321</v>
+      <c r="B247">
+        <v>207831</v>
       </c>
       <c r="C247" s="88">
         <f t="shared" si="57"/>
-        <v>332.30454545454546</v>
+        <v>314.89545454545453</v>
       </c>
       <c r="D247" s="88">
         <f t="shared" si="55"/>
-        <v>470.52835497835497</v>
+        <v>435.82748917748916</v>
       </c>
       <c r="E247" s="49">
         <v>932376</v>
@@ -23693,16 +23694,16 @@
       <c r="A248" s="75">
         <v>44138</v>
       </c>
-      <c r="B248" s="78">
-        <v>275486</v>
+      <c r="B248">
+        <v>265136</v>
       </c>
       <c r="C248" s="88">
         <f t="shared" si="57"/>
-        <v>417.40303030303028</v>
+        <v>401.72121212121215</v>
       </c>
       <c r="D248" s="88">
         <f t="shared" si="55"/>
-        <v>462.81212121212121</v>
+        <v>432.39437229437226</v>
       </c>
       <c r="E248" s="49">
         <v>936481</v>
@@ -23796,16 +23797,16 @@
       <c r="A249" s="75">
         <v>44139</v>
       </c>
-      <c r="B249" s="78">
-        <v>308672</v>
+      <c r="B249">
+        <v>301288</v>
       </c>
       <c r="C249" s="88">
         <f t="shared" si="57"/>
-        <v>467.68484848484849</v>
+        <v>456.4969696969697</v>
       </c>
       <c r="D249" s="88">
         <f t="shared" si="55"/>
-        <v>455.20389610389611</v>
+        <v>430.76623376623377</v>
       </c>
       <c r="E249" s="49">
         <v>943063</v>
@@ -23899,16 +23900,16 @@
       <c r="A250" s="75">
         <v>44140</v>
       </c>
-      <c r="B250" s="78">
-        <v>355551</v>
+      <c r="B250">
+        <v>344159</v>
       </c>
       <c r="C250" s="88">
         <f t="shared" si="57"/>
-        <v>538.7136363636364</v>
+        <v>521.45303030303035</v>
       </c>
       <c r="D250" s="88">
         <f t="shared" si="55"/>
-        <v>450.32640692640689</v>
+        <v>430.01450216450223</v>
       </c>
       <c r="E250" s="49">
         <v>948922</v>
@@ -24002,16 +24003,16 @@
       <c r="A251" s="75">
         <v>44141</v>
       </c>
-      <c r="B251" s="78">
-        <v>362649</v>
+      <c r="B251">
+        <v>355032</v>
       </c>
       <c r="C251" s="88">
         <f t="shared" si="57"/>
-        <v>549.46818181818185</v>
+        <v>537.92727272727268</v>
       </c>
       <c r="D251" s="88">
         <f t="shared" si="55"/>
-        <v>457.34199134199127</v>
+        <v>440.79913419913424</v>
       </c>
       <c r="E251" s="49">
         <v>954093</v>
@@ -24105,16 +24106,16 @@
       <c r="A252" s="75">
         <v>44142</v>
       </c>
-      <c r="B252" s="78">
-        <v>332529</v>
+      <c r="B252">
+        <v>329430</v>
       </c>
       <c r="C252" s="88">
         <f t="shared" si="57"/>
-        <v>503.83181818181816</v>
+        <v>499.13636363636363</v>
       </c>
       <c r="D252" s="88">
         <f t="shared" si="55"/>
-        <v>462.60108225108218</v>
+        <v>448.77683982683988</v>
       </c>
       <c r="E252" s="49">
         <v>961653</v>
@@ -24208,16 +24209,16 @@
       <c r="A253" s="75">
         <v>44143</v>
       </c>
-      <c r="B253" s="78">
-        <v>286364</v>
+      <c r="B253">
+        <v>283397</v>
       </c>
       <c r="C253" s="88">
         <f t="shared" si="57"/>
-        <v>433.88484848484848</v>
+        <v>429.38939393939393</v>
       </c>
       <c r="D253" s="88">
         <f t="shared" si="55"/>
-        <v>463.32727272727277</v>
+        <v>451.57424242424241</v>
       </c>
       <c r="E253" s="49">
         <v>967109</v>
@@ -24311,16 +24312,16 @@
       <c r="A254" s="75">
         <v>44144</v>
       </c>
-      <c r="B254" s="78">
-        <v>250291</v>
+      <c r="B254">
+        <v>243245</v>
       </c>
       <c r="C254" s="88">
         <f t="shared" si="57"/>
-        <v>379.2287878787879</v>
+        <v>368.55303030303031</v>
       </c>
       <c r="D254" s="88">
         <f t="shared" si="55"/>
-        <v>470.03073593073594</v>
+        <v>459.23961038961039</v>
       </c>
       <c r="E254" s="49">
         <v>971144</v>
@@ -24414,16 +24415,16 @@
       <c r="A255" s="75">
         <v>44145</v>
       </c>
-      <c r="B255" s="78">
-        <v>310141</v>
+      <c r="B255">
+        <v>304843</v>
       </c>
       <c r="C255" s="88">
         <f t="shared" si="57"/>
-        <v>469.91060606060609</v>
+        <v>461.88333333333333</v>
       </c>
       <c r="D255" s="88">
         <f t="shared" si="55"/>
-        <v>477.53181818181821</v>
+        <v>467.83419913419908</v>
       </c>
       <c r="E255" s="49">
         <v>974613</v>
@@ -24517,16 +24518,16 @@
       <c r="A256" s="75">
         <v>44146</v>
       </c>
-      <c r="B256" s="78">
-        <v>381643</v>
+      <c r="B256">
+        <v>377608</v>
       </c>
       <c r="C256" s="88">
         <f t="shared" si="57"/>
-        <v>578.2469696969697</v>
+        <v>572.13333333333333</v>
       </c>
       <c r="D256" s="88">
         <f t="shared" si="55"/>
-        <v>493.32640692640689</v>
+        <v>484.35367965367959</v>
       </c>
       <c r="E256" s="49">
         <v>981481</v>
@@ -24620,16 +24621,16 @@
       <c r="A257" s="75">
         <v>44147</v>
       </c>
-      <c r="B257" s="78">
-        <v>383999</v>
+      <c r="B257">
+        <v>379955</v>
       </c>
       <c r="C257" s="88">
         <f t="shared" si="57"/>
-        <v>581.81666666666672</v>
+        <v>575.68939393939399</v>
       </c>
       <c r="D257" s="88">
         <f t="shared" si="55"/>
-        <v>499.48398268398262</v>
+        <v>492.10173160173156</v>
       </c>
       <c r="E257" s="49">
         <v>987330</v>
@@ -24723,16 +24724,16 @@
       <c r="A258" s="75">
         <v>44148</v>
       </c>
-      <c r="B258" s="78">
-        <v>385916</v>
+      <c r="B258">
+        <v>382110</v>
       </c>
       <c r="C258" s="88">
         <f t="shared" si="57"/>
-        <v>584.72121212121215</v>
+        <v>578.9545454545455</v>
       </c>
       <c r="D258" s="88">
         <f t="shared" si="55"/>
-        <v>504.52012987012989</v>
+        <v>497.96277056277052</v>
       </c>
       <c r="E258" s="49">
         <v>993626</v>
@@ -24826,16 +24827,16 @@
       <c r="A259" s="75">
         <v>44149</v>
       </c>
-      <c r="B259" s="78">
-        <v>344679</v>
+      <c r="B259">
+        <v>343784</v>
       </c>
       <c r="C259" s="88">
         <f t="shared" si="57"/>
-        <v>522.2409090909091</v>
+        <v>520.88484848484848</v>
       </c>
       <c r="D259" s="88">
         <f t="shared" si="55"/>
-        <v>507.15</v>
+        <v>501.06969696969696</v>
       </c>
       <c r="E259" s="49">
         <v>999237</v>
@@ -24929,16 +24930,16 @@
       <c r="A260" s="75">
         <v>44150</v>
       </c>
-      <c r="B260" s="78">
-        <v>284662</v>
+      <c r="B260">
+        <v>283866</v>
       </c>
       <c r="C260" s="88">
         <f t="shared" si="57"/>
-        <v>431.30606060606061</v>
+        <v>430.1</v>
       </c>
       <c r="D260" s="88">
         <f t="shared" si="55"/>
-        <v>506.78160173160182</v>
+        <v>501.17121212121214</v>
       </c>
       <c r="E260" s="49">
         <v>1005059</v>
@@ -25032,16 +25033,16 @@
       <c r="A261" s="75">
         <v>44151</v>
       </c>
-      <c r="B261" s="78">
-        <v>236629</v>
+      <c r="B261">
+        <v>234189</v>
       </c>
       <c r="C261" s="88">
         <f t="shared" si="57"/>
-        <v>358.52878787878785</v>
+        <v>354.83181818181816</v>
       </c>
       <c r="D261" s="88">
         <f t="shared" si="55"/>
-        <v>503.82445887445891</v>
+        <v>499.21103896103898</v>
       </c>
       <c r="E261" s="49">
         <v>1009174</v>
@@ -25056,7 +25057,7 @@
         <v>717</v>
       </c>
       <c r="I261" s="32">
-        <f t="shared" ref="I261:I282" si="70">H261/(G261-G260)</f>
+        <f t="shared" ref="I261:I283" si="70">H261/(G261-G260)</f>
         <v>0.14838576158940397</v>
       </c>
       <c r="J261" s="49">
@@ -25135,16 +25136,16 @@
       <c r="A262" s="75">
         <v>44152</v>
       </c>
-      <c r="B262" s="78">
-        <v>286546</v>
+      <c r="B262">
+        <v>283358</v>
       </c>
       <c r="C262" s="88">
         <f t="shared" si="57"/>
-        <v>434.16060606060609</v>
+        <v>429.33030303030301</v>
       </c>
       <c r="D262" s="88">
         <f t="shared" si="55"/>
-        <v>498.71731601731602</v>
+        <v>494.56060606060606</v>
       </c>
       <c r="E262" s="49">
         <v>1014975</v>
@@ -25238,16 +25239,16 @@
       <c r="A263" s="75">
         <v>44153</v>
       </c>
-      <c r="B263" s="78">
-        <v>367626</v>
+      <c r="B263">
+        <v>364490</v>
       </c>
       <c r="C263" s="88">
         <f t="shared" si="57"/>
-        <v>557.0090909090909</v>
+        <v>552.25757575757575</v>
       </c>
       <c r="D263" s="88">
         <f t="shared" si="55"/>
-        <v>495.68333333333339</v>
+        <v>491.72121212121209</v>
       </c>
       <c r="E263" s="49">
         <v>1022287</v>
@@ -25341,16 +25342,16 @@
       <c r="A264" s="75">
         <v>44154</v>
       </c>
-      <c r="B264" s="78">
-        <v>399929</v>
+      <c r="B264">
+        <v>395436</v>
       </c>
       <c r="C264" s="88">
         <f t="shared" si="57"/>
-        <v>605.95303030303035</v>
+        <v>599.14545454545453</v>
       </c>
       <c r="D264" s="88">
         <f t="shared" si="55"/>
-        <v>499.13138528138523</v>
+        <v>495.07207792207788</v>
       </c>
       <c r="E264" s="49">
         <v>1028947</v>
@@ -25444,16 +25445,16 @@
       <c r="A265" s="75">
         <v>44155</v>
       </c>
-      <c r="B265" s="78">
-        <v>395881</v>
+      <c r="B265">
+        <v>391667</v>
       </c>
       <c r="C265" s="88">
         <f t="shared" si="57"/>
-        <v>599.81969696969702</v>
+        <v>593.43484848484843</v>
       </c>
       <c r="D265" s="88">
         <f t="shared" si="55"/>
-        <v>501.28831168831175</v>
+        <v>497.14069264069258</v>
       </c>
       <c r="E265" s="49">
         <v>1034503</v>
@@ -25547,16 +25548,16 @@
       <c r="A266" s="75">
         <v>44156</v>
       </c>
-      <c r="B266" s="78">
-        <v>369943</v>
+      <c r="B266">
+        <v>369040</v>
       </c>
       <c r="C266" s="88">
         <f t="shared" si="57"/>
-        <v>560.51969696969695</v>
+        <v>559.15151515151513</v>
       </c>
       <c r="D266" s="88">
         <f t="shared" si="55"/>
-        <v>506.75670995670993</v>
+        <v>502.60735930735927</v>
       </c>
       <c r="E266" s="49">
         <v>1039413</v>
@@ -25650,16 +25651,16 @@
       <c r="A267" s="75">
         <v>44157</v>
       </c>
-      <c r="B267" s="78">
-        <v>279458</v>
+      <c r="B267">
+        <v>279041</v>
       </c>
       <c r="C267" s="88">
         <f t="shared" si="57"/>
-        <v>423.42121212121214</v>
+        <v>422.78939393939396</v>
       </c>
       <c r="D267" s="88">
         <f t="shared" ref="D267:D278" si="74">SUM(C261:C267)/7</f>
-        <v>505.63030303030308</v>
+        <v>501.56298701298692</v>
       </c>
       <c r="E267" s="49">
         <v>1044676</v>
@@ -25753,16 +25754,16 @@
       <c r="A268" s="75">
         <v>44158</v>
       </c>
-      <c r="B268" s="78">
-        <v>214920</v>
+      <c r="B268">
+        <v>212533</v>
       </c>
       <c r="C268" s="88">
         <f t="shared" si="57"/>
-        <v>325.63636363636363</v>
+        <v>322.01969696969695</v>
       </c>
       <c r="D268" s="88">
         <f t="shared" si="74"/>
-        <v>500.93138528138525</v>
+        <v>496.87554112554102</v>
       </c>
       <c r="E268" s="49">
         <v>1049016</v>
@@ -25856,16 +25857,16 @@
       <c r="A269" s="75">
         <v>44159</v>
       </c>
-      <c r="B269" s="78">
-        <v>314800</v>
+      <c r="B269">
+        <v>311763</v>
       </c>
       <c r="C269" s="88">
         <f t="shared" si="57"/>
-        <v>476.969696969697</v>
+        <v>472.36818181818182</v>
       </c>
       <c r="D269" s="88">
         <f t="shared" si="74"/>
-        <v>507.04696969696977</v>
+        <v>503.02380952380952</v>
       </c>
       <c r="E269" s="49">
         <v>1053018</v>
@@ -25959,16 +25960,16 @@
       <c r="A270" s="75">
         <v>44160</v>
       </c>
-      <c r="B270" s="78">
-        <v>359597</v>
+      <c r="B270">
+        <v>356026</v>
       </c>
       <c r="C270" s="88">
         <f t="shared" si="57"/>
-        <v>544.84393939393942</v>
+        <v>539.43333333333328</v>
       </c>
       <c r="D270" s="88">
         <f t="shared" si="74"/>
-        <v>505.30909090909091</v>
+        <v>501.19177489177486</v>
       </c>
       <c r="E270" s="49">
         <v>1058179</v>
@@ -26062,16 +26063,16 @@
       <c r="A271" s="75">
         <v>44161</v>
       </c>
-      <c r="B271" s="78">
-        <v>387945</v>
+      <c r="B271">
+        <v>383521</v>
       </c>
       <c r="C271" s="88">
         <f t="shared" si="57"/>
-        <v>587.7954545454545</v>
+        <v>581.09242424242427</v>
       </c>
       <c r="D271" s="88">
         <f t="shared" si="74"/>
-        <v>502.71515151515149</v>
+        <v>498.61277056277055</v>
       </c>
       <c r="E271" s="49">
         <v>1065446</v>
@@ -26165,16 +26166,16 @@
       <c r="A272" s="75">
         <v>44162</v>
       </c>
-      <c r="B272" s="78">
-        <v>337481</v>
+      <c r="B272">
+        <v>333917</v>
       </c>
       <c r="C272" s="88">
         <f t="shared" si="57"/>
-        <v>511.33484848484846</v>
+        <v>505.93484848484849</v>
       </c>
       <c r="D272" s="88">
         <f t="shared" si="74"/>
-        <v>490.07445887445886</v>
+        <v>486.11277056277055</v>
       </c>
       <c r="E272" s="49">
         <v>1071044</v>
@@ -26268,16 +26269,16 @@
       <c r="A273" s="75">
         <v>44163</v>
       </c>
-      <c r="B273" s="78">
-        <v>311855</v>
+      <c r="B273">
+        <v>311126</v>
       </c>
       <c r="C273" s="88">
         <f t="shared" si="57"/>
-        <v>472.50757575757575</v>
+        <v>471.40303030303028</v>
       </c>
       <c r="D273" s="88">
         <f t="shared" si="74"/>
-        <v>477.50129870129865</v>
+        <v>473.57727272727277</v>
       </c>
       <c r="E273" s="49">
         <v>1076945</v>
@@ -26371,16 +26372,16 @@
       <c r="A274" s="75">
         <v>44164</v>
       </c>
-      <c r="B274" s="78">
-        <v>220377</v>
+      <c r="B274">
+        <v>219899</v>
       </c>
       <c r="C274" s="88">
         <f t="shared" si="57"/>
-        <v>333.90454545454543</v>
+        <v>333.18030303030304</v>
       </c>
       <c r="D274" s="88">
         <f t="shared" si="74"/>
-        <v>464.71320346320351</v>
+        <v>460.77597402597399</v>
       </c>
       <c r="E274" s="49">
         <v>1082284</v>
@@ -26474,16 +26475,16 @@
       <c r="A275" s="75">
         <v>44165</v>
       </c>
-      <c r="B275" s="78">
-        <v>216509</v>
+      <c r="B275">
+        <v>214835</v>
       </c>
       <c r="C275" s="88">
         <f t="shared" si="57"/>
-        <v>328.04393939393941</v>
+        <v>325.50757575757575</v>
       </c>
       <c r="D275" s="88">
         <f t="shared" si="74"/>
-        <v>465.05714285714288</v>
+        <v>461.2742424242424</v>
       </c>
       <c r="E275" s="49">
         <v>1084192</v>
@@ -26576,16 +26577,16 @@
       <c r="A276" s="75">
         <v>44166</v>
       </c>
-      <c r="B276" s="78">
-        <v>314921</v>
+      <c r="B276">
+        <v>312003</v>
       </c>
       <c r="C276" s="88">
         <f t="shared" si="57"/>
-        <v>477.15303030303028</v>
+        <v>472.7318181818182</v>
       </c>
       <c r="D276" s="88">
         <f t="shared" si="74"/>
-        <v>465.08333333333337</v>
+        <v>461.32619047619056</v>
       </c>
       <c r="E276" s="49">
         <v>1089047</v>
@@ -26616,13 +26617,13 @@
         <v>1717290</v>
       </c>
       <c r="N276" s="71">
-        <f>J276+L276</f>
+        <f t="shared" ref="N276:N283" si="75">J276+L276</f>
         <v>13039</v>
       </c>
       <c r="O276" s="71">
         <v>956</v>
       </c>
-      <c r="P276" s="99">
+      <c r="P276" s="103">
         <f t="shared" si="63"/>
         <v>7.331850602040034E-2</v>
       </c>
@@ -26631,15 +26632,15 @@
         <v>41759</v>
       </c>
       <c r="R276" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="R276:R282" si="76">SUM(H270:H276)</f>
         <v>5730</v>
       </c>
       <c r="S276" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="S276:T283" si="77">SUM(N270:N276)</f>
         <v>130748</v>
       </c>
       <c r="T276" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>6860</v>
       </c>
       <c r="U276" s="76">
@@ -26679,16 +26680,16 @@
       <c r="A277" s="75">
         <v>44167</v>
       </c>
-      <c r="B277" s="78">
-        <v>356518</v>
+      <c r="B277">
+        <v>352990</v>
       </c>
       <c r="C277" s="88">
         <f t="shared" si="57"/>
-        <v>540.17878787878783</v>
+        <v>534.83333333333337</v>
       </c>
       <c r="D277" s="88">
         <f t="shared" si="74"/>
-        <v>464.41688311688313</v>
+        <v>460.66904761904772</v>
       </c>
       <c r="E277" s="49">
         <v>1097507</v>
@@ -26719,13 +26720,13 @@
         <v>1733268</v>
       </c>
       <c r="N277" s="71">
-        <f>J277+L277</f>
+        <f t="shared" si="75"/>
         <v>24173</v>
       </c>
       <c r="O277" s="71">
         <v>1098</v>
       </c>
-      <c r="P277" s="99">
+      <c r="P277" s="103">
         <f t="shared" si="63"/>
         <v>4.5422578910354526E-2</v>
       </c>
@@ -26734,15 +26735,15 @@
         <v>45129</v>
       </c>
       <c r="R277" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>5801</v>
       </c>
       <c r="S277" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="S277" si="78">SUM(N271:N277)</f>
         <v>139316</v>
       </c>
       <c r="T277" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>6899</v>
       </c>
       <c r="U277" s="76">
@@ -26782,16 +26783,16 @@
       <c r="A278" s="75">
         <v>44168</v>
       </c>
-      <c r="B278" s="78">
-        <v>393216</v>
+      <c r="B278">
+        <v>389476</v>
       </c>
       <c r="C278" s="88">
         <f t="shared" si="57"/>
-        <v>595.78181818181815</v>
+        <v>590.11515151515152</v>
       </c>
       <c r="D278" s="88">
         <f t="shared" si="74"/>
-        <v>465.55779220779215</v>
+        <v>461.95800865800868</v>
       </c>
       <c r="E278" s="49">
         <v>1103860</v>
@@ -26822,13 +26823,13 @@
         <v>1750224</v>
       </c>
       <c r="N278" s="71">
-        <f>J278+L278</f>
+        <f t="shared" si="75"/>
         <v>26233</v>
       </c>
       <c r="O278" s="71">
         <v>1120</v>
       </c>
-      <c r="P278" s="99">
+      <c r="P278" s="103">
         <f t="shared" si="63"/>
         <v>4.2694316319140016E-2</v>
       </c>
@@ -26837,15 +26838,15 @@
         <v>43948</v>
       </c>
       <c r="R278" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>5534</v>
       </c>
       <c r="S278" s="33">
-        <f t="shared" ref="S278:T279" si="75">SUM(N272:N278)</f>
+        <f t="shared" ref="S278:S283" si="79">SUM(N272:N278)</f>
         <v>135605</v>
       </c>
       <c r="T278" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6608</v>
       </c>
       <c r="U278" s="76">
@@ -26885,9 +26886,17 @@
       <c r="A279" s="75">
         <v>44169</v>
       </c>
-      <c r="B279" s="70"/>
-      <c r="C279" s="88"/>
-      <c r="D279" s="88"/>
+      <c r="B279">
+        <v>380886</v>
+      </c>
+      <c r="C279" s="88">
+        <f t="shared" ref="C279:C282" si="80">B279/660</f>
+        <v>577.1</v>
+      </c>
+      <c r="D279" s="88">
+        <f t="shared" ref="D279:D282" si="81">SUM(C273:C279)/7</f>
+        <v>472.12445887445887</v>
+      </c>
       <c r="E279" s="49">
         <v>1110733</v>
       </c>
@@ -26917,13 +26926,13 @@
         <v>1768173</v>
       </c>
       <c r="N279" s="71">
-        <f>J279+L279</f>
+        <f t="shared" si="75"/>
         <v>26867</v>
       </c>
       <c r="O279" s="71">
         <v>1134</v>
       </c>
-      <c r="P279" s="99">
+      <c r="P279" s="103">
         <f t="shared" si="63"/>
         <v>4.2207913053187926E-2</v>
       </c>
@@ -26932,15 +26941,15 @@
         <v>45220</v>
       </c>
       <c r="R279" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>5531</v>
       </c>
       <c r="S279" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="79"/>
         <v>135545</v>
       </c>
       <c r="T279" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6592</v>
       </c>
       <c r="U279" s="76">
@@ -26980,16 +26989,24 @@
       <c r="A280" s="75">
         <v>44170</v>
       </c>
-      <c r="B280" s="70"/>
-      <c r="C280" s="88"/>
-      <c r="D280" s="88"/>
+      <c r="B280">
+        <v>354799</v>
+      </c>
+      <c r="C280" s="88">
+        <f t="shared" si="80"/>
+        <v>537.57424242424247</v>
+      </c>
+      <c r="D280" s="88">
+        <f t="shared" si="81"/>
+        <v>481.57748917748916</v>
+      </c>
       <c r="E280" s="49">
         <v>1116611</v>
       </c>
       <c r="F280" s="49">
         <v>99463</v>
       </c>
-      <c r="G280" s="49">
+      <c r="G280" s="52">
         <v>1216074</v>
       </c>
       <c r="H280" s="49">
@@ -27012,13 +27029,14 @@
         <v>1781490</v>
       </c>
       <c r="N280" s="71">
+        <f t="shared" si="75"/>
         <v>20723</v>
       </c>
       <c r="O280" s="71">
         <v>939</v>
       </c>
-      <c r="P280" s="99">
-        <f>O280/N280</f>
+      <c r="P280" s="103">
+        <f t="shared" si="63"/>
         <v>4.5311972204796602E-2</v>
       </c>
       <c r="Q280" s="35">
@@ -27026,15 +27044,15 @@
         <v>45186</v>
       </c>
       <c r="R280" s="35">
-        <f t="shared" si="60"/>
+        <f t="shared" si="76"/>
         <v>5520</v>
       </c>
       <c r="S280" s="33">
-        <f>SUM(N274:N280)</f>
+        <f t="shared" si="79"/>
         <v>134774</v>
       </c>
       <c r="T280" s="33">
-        <f>SUM(O274:O280)</f>
+        <f t="shared" si="77"/>
         <v>6578</v>
       </c>
       <c r="U280" s="76">
@@ -27074,6 +27092,17 @@
       <c r="A281" s="75">
         <v>44171</v>
       </c>
+      <c r="B281">
+        <v>272787</v>
+      </c>
+      <c r="C281" s="88">
+        <f t="shared" si="80"/>
+        <v>413.31363636363636</v>
+      </c>
+      <c r="D281" s="88">
+        <f t="shared" si="81"/>
+        <v>493.02510822510823</v>
+      </c>
       <c r="E281" s="49">
         <v>1121124</v>
       </c>
@@ -27103,29 +27132,30 @@
         <v>1790697</v>
       </c>
       <c r="N281" s="71">
+        <f t="shared" si="75"/>
         <v>14790</v>
       </c>
       <c r="O281" s="71">
         <v>768</v>
       </c>
-      <c r="P281" s="99">
+      <c r="P281" s="103">
         <f t="shared" si="63"/>
         <v>5.1926977687626774E-2</v>
       </c>
       <c r="Q281" s="35">
-        <f t="shared" ref="Q281" si="76">G281-G274</f>
+        <f t="shared" si="59"/>
         <v>44257</v>
       </c>
       <c r="R281" s="35">
-        <f t="shared" ref="R281" si="77">SUM(H275:H281)</f>
+        <f t="shared" ref="R281" si="82">SUM(H275:H281)</f>
         <v>5417</v>
       </c>
       <c r="S281" s="33">
-        <f t="shared" ref="S281:T281" si="78">SUM(N275:N281)</f>
+        <f t="shared" si="79"/>
         <v>132518</v>
       </c>
       <c r="T281" s="33">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>6461</v>
       </c>
       <c r="U281" s="76">
@@ -27137,41 +27167,224 @@
         <v>24.256035729321106</v>
       </c>
       <c r="W281" s="91">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="W281:W283" si="83">SUM(H275:H281)/7</f>
         <v>773.85714285714289</v>
       </c>
       <c r="X281" s="93">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="X281:X283" si="84">H281/(G281-G280)</f>
         <v>0.12470907680372381</v>
       </c>
       <c r="Y281" s="27">
-        <f>SUM(N275:N281)/7</f>
+        <f t="shared" ref="Y281:Y283" si="85">SUM(N275:N281)/7</f>
         <v>18931.142857142859</v>
       </c>
       <c r="Z281" s="28">
-        <f>N281/54.633</f>
+        <f t="shared" ref="Z281:Z283" si="86">N281/54.633</f>
         <v>270.71550161990007</v>
       </c>
       <c r="AA281" s="29">
-        <f>SUM(Z275:Z281)/7</f>
+        <f t="shared" ref="AA281:AA283" si="87">SUM(Z275:Z281)/7</f>
         <v>346.51479613315865</v>
       </c>
       <c r="AB281" s="28">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="AB281:AB283" si="88">SUM(I275:I281)*100/7</f>
         <v>12.755639596518686</v>
       </c>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F282" s="49"/>
-      <c r="G282" s="49"/>
+      <c r="A282" s="75">
+        <v>44172</v>
+      </c>
+      <c r="B282">
+        <v>215981</v>
+      </c>
+      <c r="C282" s="88">
+        <f t="shared" si="80"/>
+        <v>327.2439393939394</v>
+      </c>
+      <c r="D282" s="88">
+        <f t="shared" si="81"/>
+        <v>493.27316017316019</v>
+      </c>
+      <c r="E282" s="49">
+        <v>1124911</v>
+      </c>
+      <c r="F282" s="49">
+        <v>100783</v>
+      </c>
+      <c r="G282" s="52">
+        <v>1225694</v>
+      </c>
+      <c r="H282" s="49">
+        <v>677</v>
+      </c>
       <c r="I282" s="32">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>0.15165770609318996</v>
+      </c>
+      <c r="J282" s="49">
+        <v>5352</v>
+      </c>
+      <c r="K282" s="52">
+        <v>1112263</v>
+      </c>
+      <c r="L282" s="70">
+        <v>6169</v>
+      </c>
+      <c r="M282" s="72">
+        <v>1796866</v>
+      </c>
+      <c r="N282" s="71">
+        <f t="shared" si="75"/>
+        <v>11521</v>
+      </c>
+      <c r="O282" s="71">
+        <v>774</v>
+      </c>
+      <c r="P282" s="103">
+        <f t="shared" si="63"/>
+        <v>6.718166825796372E-2</v>
+      </c>
+      <c r="Q282" s="35">
+        <f t="shared" si="59"/>
+        <v>46445</v>
+      </c>
+      <c r="R282" s="35">
+        <f t="shared" ref="R282:R283" si="89">SUM(H276:H282)</f>
+        <v>5726</v>
+      </c>
+      <c r="S282" s="33">
+        <f t="shared" si="79"/>
+        <v>137346</v>
+      </c>
+      <c r="T282" s="33">
+        <f t="shared" si="77"/>
+        <v>6789</v>
+      </c>
+      <c r="U282" s="76">
+        <f t="shared" si="64"/>
+        <v>4.9429906950329824E-2</v>
+      </c>
+      <c r="V282" s="37">
+        <f t="shared" si="62"/>
+        <v>25.139750700126296</v>
+      </c>
+      <c r="W282" s="91">
+        <f t="shared" si="83"/>
+        <v>818</v>
+      </c>
+      <c r="X282" s="93">
+        <f t="shared" si="84"/>
+        <v>0.15165770609318996</v>
+      </c>
+      <c r="Y282" s="27">
+        <f t="shared" si="85"/>
+        <v>19620.857142857141</v>
+      </c>
+      <c r="Z282" s="28">
+        <f t="shared" si="86"/>
+        <v>210.87987114015337</v>
+      </c>
+      <c r="AA282" s="29">
+        <f t="shared" si="87"/>
+        <v>359.13929571608986</v>
+      </c>
+      <c r="AB282" s="28">
+        <f t="shared" si="88"/>
+        <v>12.612361533928302</v>
       </c>
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F283" s="49"/>
-      <c r="G283" s="49"/>
+      <c r="A283" s="75">
+        <v>44173</v>
+      </c>
+      <c r="E283" s="49">
+        <v>1131614</v>
+      </c>
+      <c r="F283" s="49">
+        <v>101475</v>
+      </c>
+      <c r="G283" s="52">
+        <v>1233089</v>
+      </c>
+      <c r="H283" s="49">
+        <v>692</v>
+      </c>
+      <c r="I283" s="32">
+        <f t="shared" si="70"/>
+        <v>9.3576741041244083E-2</v>
+      </c>
+      <c r="J283" s="49">
+        <v>5934</v>
+      </c>
+      <c r="K283" s="52">
+        <v>1118197</v>
+      </c>
+      <c r="L283" s="70">
+        <v>9267</v>
+      </c>
+      <c r="M283" s="72">
+        <v>1806133</v>
+      </c>
+      <c r="N283" s="71">
+        <f t="shared" si="75"/>
+        <v>15201</v>
+      </c>
+      <c r="O283" s="71">
+        <v>843</v>
+      </c>
+      <c r="P283" s="103">
+        <f t="shared" si="63"/>
+        <v>5.5456877836984407E-2</v>
+      </c>
+      <c r="Q283" s="35">
+        <f t="shared" si="59"/>
+        <v>48231</v>
+      </c>
+      <c r="R283" s="35">
+        <f t="shared" si="89"/>
+        <v>5664</v>
+      </c>
+      <c r="S283" s="33">
+        <f t="shared" si="79"/>
+        <v>139508</v>
+      </c>
+      <c r="T283" s="33">
+        <f t="shared" si="77"/>
+        <v>6676</v>
+      </c>
+      <c r="U283" s="76">
+        <f t="shared" si="64"/>
+        <v>4.7853886515468645E-2</v>
+      </c>
+      <c r="V283" s="37">
+        <f t="shared" si="62"/>
+        <v>25.535482217707244</v>
+      </c>
+      <c r="W283" s="91">
+        <f t="shared" si="83"/>
+        <v>809.14285714285711</v>
+      </c>
+      <c r="X283" s="93">
+        <f t="shared" si="84"/>
+        <v>9.3576741041244083E-2</v>
+      </c>
+      <c r="Y283" s="27">
+        <f t="shared" si="85"/>
+        <v>19929.714285714286</v>
+      </c>
+      <c r="Z283" s="28">
+        <f t="shared" si="86"/>
+        <v>278.23842732414471</v>
+      </c>
+      <c r="AA283" s="29">
+        <f t="shared" si="87"/>
+        <v>364.79260311010341</v>
+      </c>
+      <c r="AB283" s="28">
+        <f t="shared" si="88"/>
+        <v>12.028789062391072</v>
+      </c>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F284" s="49"/>
